--- a/VENTAS/Referencias Promo Autoparts.xlsx
+++ b/VENTAS/Referencias Promo Autoparts.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mercadeo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\donsson\proyectos\VENTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC13EB45-F459-4106-A2D9-B8C5A0C86AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7439F5F7-699C-4EB3-AB12-3F2E7267ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F9D57CC-A67F-40A5-9D2E-A147CCFBBDB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{1F9D57CC-A67F-40A5-9D2E-A147CCFBBDB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -989,7 +993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1012,11 +1016,218 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1030,17 +1241,307 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1C1C1C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1058,10 +1559,1236 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Donsson" refreshedDate="45910.616536574074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="143" xr:uid="{CF80AA2A-69E4-489C-95F1-C3A8F6D3AD85}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F144" sheet="Hoja1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Referencia interna" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Nombre" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Categoría interna" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Clase" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Precio de venta" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4500" maxValue="645200"/>
+    </cacheField>
+    <cacheField name="Cantidad a mano" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="103" maxValue="3315"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="143">
+  <r>
+    <s v="DCE00454189"/>
+    <s v="G454 FILTRO COMBUSTIBLE SUBARU, TOYOTA."/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="4500"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <s v="DLE00909189"/>
+    <s v="G909 FILTRO ACEITE - RENAULT KOLEOS Y MASTER"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="C"/>
+    <n v="18600"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <s v="DAE06784189"/>
+    <s v="GA784 FILTRO AIRE DAIHATSU TERIOS, TOYOTA COROLLA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="22000"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <s v="DCS00740189"/>
+    <s v="GS740 FILTRO COMBUSTIBLE - HINO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="75000"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <s v="DAE00706189"/>
+    <s v="GA706 FILTRO AIRE - NISSAN FRONTIER D22 ANTERIOR A 2015"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
+    <s v="C"/>
+    <n v="41000"/>
+    <n v="109"/>
+  </r>
+  <r>
+    <s v="DCE00563189"/>
+    <s v="G563 FILTRO COMBUSTIBLE CHEVROLET ALTO 1.1, DFSK 1.1  y 1.3 lts"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="18000"/>
+    <n v="112"/>
+  </r>
+  <r>
+    <s v="DAC00066189"/>
+    <s v="DAC066 FILTRO AIRE CABINA HYUNDAI, KIA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="13000"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <s v="DAE06719189"/>
+    <s v="GA719 FILTRO AIRE TOYOTA COROLLA,MAZDA MILLENIA V6."/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="9800"/>
+    <n v="115"/>
+  </r>
+  <r>
+    <s v="DLS00658189"/>
+    <s v="GS658 FILTRO ACITE -CHEV. Luv Dmax 2.5Lts"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="31000"/>
+    <n v="116"/>
+  </r>
+  <r>
+    <s v="DCS00756189"/>
+    <s v="GS756 FILTRO SEPARADOR AGUA/ COMB - SHACMAN"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="86900"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <s v="DCS00343189"/>
+    <s v="GS343 FILTRO COMBUSTIBLE - NISSAN"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="42000"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <s v="DAE06751189"/>
+    <s v="GA751 FILTRO AIRE MAZDA 323I. GAIA."/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="14900"/>
+    <n v="124"/>
+  </r>
+  <r>
+    <s v="DAP08050189"/>
+    <s v="DA8050 FILTRO AIRE XPEC KENWORTH T660-T800"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
+    <s v="C"/>
+    <n v="645200"/>
+    <n v="127"/>
+  </r>
+  <r>
+    <s v="DCE00540189"/>
+    <s v="G540 FILTRO COMB.NISSAN Y-61 1640003J00"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="5600"/>
+    <n v="131"/>
+  </r>
+  <r>
+    <s v="DCE00651189"/>
+    <s v="G651 FILTRO COMBUSTIBLE - ISUZU LV- HITACHI"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="32000"/>
+    <n v="133"/>
+  </r>
+  <r>
+    <s v="DCE00450189"/>
+    <s v="G450 FILTRO COMBUSTIBLE TOYOTA HILUX, COROLLA, DAIHA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="7800"/>
+    <n v="137"/>
+  </r>
+  <r>
+    <s v="DLE00948189"/>
+    <s v="G948 FILTRO ACEITE - HYUNDAI"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="C"/>
+    <n v="32000"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <s v="DLS00077189"/>
+    <s v="GS077 FILTRO ACEITE BY PASS - CUMMINS - CAT - GMC"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="85000"/>
+    <n v="141"/>
+  </r>
+  <r>
+    <s v="DAE10981189"/>
+    <s v="GA981A FILTRO AIRE - MITSUBISHI SPORTERO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="25000"/>
+    <n v="141"/>
+  </r>
+  <r>
+    <s v="DAE00699189"/>
+    <s v="GA699 FILTRO AIRE - RENAULT LOGAN"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="B"/>
+    <n v="20000"/>
+    <n v="145"/>
+  </r>
+  <r>
+    <s v="DCS00758189"/>
+    <s v="GS758 FILTRO COMBUSTIBLE - CUMMINS ISZ - SHACMAN"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="62000"/>
+    <n v="146"/>
+  </r>
+  <r>
+    <s v="DLE00664189"/>
+    <s v="G664 FILTRO ACEITE - MERCEDES BENZ"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="C"/>
+    <n v="72000"/>
+    <n v="146"/>
+  </r>
+  <r>
+    <s v="DCS00757189"/>
+    <s v="GS757 FILTRO COMBUSTIBLE - CUMMINS - SHACMAN CON SENSOR"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="109900"/>
+    <n v="147"/>
+  </r>
+  <r>
+    <s v="DCE00663189"/>
+    <s v="G663 FILTRO COMBUSTIBLE - MERCEDES Actross, FREIGHTLINER M2,"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="B"/>
+    <n v="44000"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <s v="DWS00303189"/>
+    <s v="GS303 FILTRO SISTEMA DE ENFRIAMIENTO - CUMMINS ISX sin quimico - IHC - KENWORTH"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Enfriamiento / Autoparts Enfriamiento Sellado"/>
+    <s v="C"/>
+    <n v="59000"/>
+    <n v="157"/>
+  </r>
+  <r>
+    <s v="DAS00719189"/>
+    <s v="GS719 FILTRO SEPAR. ACEITE / AIRE - IHC - DAF - FORD - CUMMINS"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="38000"/>
+    <n v="159"/>
+  </r>
+  <r>
+    <s v="DAS00743189"/>
+    <s v="GS743 FILTRO SECADOR DE AIRE COALESCENTE - KENWORTH - FOTON - SHACMAN"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="99900"/>
+    <n v="161"/>
+  </r>
+  <r>
+    <s v="DCE01018189"/>
+    <s v="G1018 FILTRO COMBUSTIBLE - FOTON TUNLAND G7"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="47900"/>
+    <n v="161"/>
+  </r>
+  <r>
+    <s v="DAC00116189"/>
+    <s v="DAC116 FILTRO AIRE CABINA - FOTON TUNLAND"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="B"/>
+    <n v="17000"/>
+    <n v="165"/>
+  </r>
+  <r>
+    <s v="DCE01010189"/>
+    <s v="G1010 FILTRO COMBUSTIBLE SEPARADOR - HINO DUTRO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="28000"/>
+    <n v="168"/>
+  </r>
+  <r>
+    <s v="DCE00484189"/>
+    <s v="G484 FILTRO COMBUTIBLE CHEVROLET SWIFT 1.3 INYECCION"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="11000"/>
+    <n v="173"/>
+  </r>
+  <r>
+    <s v="DAE01121189"/>
+    <s v="GA1121 FILTRO AIRE - FORD ESCAPE"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="B"/>
+    <n v="40000"/>
+    <n v="175"/>
+  </r>
+  <r>
+    <s v="DAE00980189"/>
+    <s v="GA980 FILTRO AIRE CHEVROLET AVEO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="17900"/>
+    <n v="177"/>
+  </r>
+  <r>
+    <s v="DAE08260189"/>
+    <s v="DA8260 FILTRO AIRE - VOLKSWAGEN DELIVERY"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
+    <s v="C"/>
+    <n v="150000"/>
+    <n v="178"/>
+  </r>
+  <r>
+    <s v="DCE01011189"/>
+    <s v="G1011 FILTRO COMBUSTIBLE - HINO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="38000"/>
+    <n v="179"/>
+  </r>
+  <r>
+    <s v="DCE00653189"/>
+    <s v="G653 FILTRO COMBUSTIBLE - CHEVROLET AVEO, OPTRA, SPARK"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="18000"/>
+    <n v="180"/>
+  </r>
+  <r>
+    <s v="DAR08255189"/>
+    <s v="DA9255 FILTRO AIRE SEGURIDAD - HITACHI - MAHINDRA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
+    <s v="C"/>
+    <n v="48000"/>
+    <n v="181"/>
+  </r>
+  <r>
+    <s v="DLE01009189"/>
+    <s v="G1009 FILTRO ACEITE - HINO DUTRO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="C"/>
+    <n v="45000"/>
+    <n v="183"/>
+  </r>
+  <r>
+    <s v="DAR09198189"/>
+    <s v="DA9198 FILTRO AIRE SEGURIDAD - YANMAR - HITACHI"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
+    <s v="C"/>
+    <n v="39000"/>
+    <n v="191"/>
+  </r>
+  <r>
+    <s v="DCS10014189"/>
+    <s v="GS014A FILTRO COMBUSTIBLE - CUMMINS"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="27000"/>
+    <n v="192"/>
+  </r>
+  <r>
+    <s v="DAE01026189"/>
+    <s v="GA1026 FILTRO AIRE - RENAULT Twingo Fase 3"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="20200"/>
+    <n v="199"/>
+  </r>
+  <r>
+    <s v="DLE00726189"/>
+    <s v="G726 FILTRO ACEITE - FREIGHTLINER"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="B"/>
+    <n v="51000"/>
+    <n v="204"/>
+  </r>
+  <r>
+    <s v="DCE00633189"/>
+    <s v="G633 FILTRO SEPARADOR COMBUSTIBLE - IHC - DAVCO - DETROIT"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="59000"/>
+    <n v="207"/>
+  </r>
+  <r>
+    <s v="DAE01072189"/>
+    <s v="GA1072 FILTRO AIRE - CHEVROLET BEAT, SPARK"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="B"/>
+    <n v="18000"/>
+    <n v="207"/>
+  </r>
+  <r>
+    <s v="DAC00087189"/>
+    <s v="DAC087 FILTRO AIRE  CABINA FREIGHTLINER Business Class. Autoparts"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="12000"/>
+    <n v="209"/>
+  </r>
+  <r>
+    <s v="DCE00609189"/>
+    <s v="G609 FILTRO COMBUSTIBLE - MERCEDES BENZ - FREIGHTLINER"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="49000"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <s v="DCE00582189"/>
+    <s v="G582 FILTRO COMBUSTIBLE HYUNDAI ATOS"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="20200"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <s v="DAE01079189"/>
+    <s v="GA1079 FILTRO AIRE - FORD FIESTA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="19000"/>
+    <n v="232"/>
+  </r>
+  <r>
+    <s v="DAP18208189"/>
+    <s v="DA8208KIT FILTRO AIRE JUEGO - CASE - JCB"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Elemento Axial"/>
+    <s v="C"/>
+    <n v="197000"/>
+    <n v="234"/>
+  </r>
+  <r>
+    <s v="DAP18175189"/>
+    <s v="DA8175 FILTRO AIRE - IHC"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="350000"/>
+    <n v="234"/>
+  </r>
+  <r>
+    <s v="DCS00035189"/>
+    <s v="GS035 FILTRO COMB. - CUMMINS"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="B"/>
+    <n v="25000"/>
+    <n v="236"/>
+  </r>
+  <r>
+    <s v="DAE01096189"/>
+    <s v="GA1096 FILTRO AIRE - NISSAN MARCH, VERSA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="B"/>
+    <n v="15500"/>
+    <n v="244"/>
+  </r>
+  <r>
+    <s v="DLE00708189"/>
+    <s v="G708 FILTRO ACEITE FULL FLOW - HYUNDAI"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="B"/>
+    <n v="48000"/>
+    <n v="245"/>
+  </r>
+  <r>
+    <s v="DAC00036189"/>
+    <s v="DAC036 FILTRO AIRE CABINA CHEV.AVEO Y EMOTION"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="16200"/>
+    <n v="245"/>
+  </r>
+  <r>
+    <s v="DCE00764189"/>
+    <s v="G764 FILTRO SEPARDOR COMBUSTIBLE - DAVCO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="B"/>
+    <n v="45000"/>
+    <n v="247"/>
+  </r>
+  <r>
+    <s v="DCE01019189"/>
+    <s v="G1019 FILTRO COMBUSTIBLE - FOTON MILER"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="66500"/>
+    <n v="249"/>
+  </r>
+  <r>
+    <s v="DCE00929189"/>
+    <s v="G929 FILTRO COMBUSTIBLE - FORD Ranger Diesel- MAZDA BT50"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="18000"/>
+    <n v="253"/>
+  </r>
+  <r>
+    <s v="DLE00634189"/>
+    <s v="G634 FILTRO ACEITE NISSAN URVAN 2004"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="C"/>
+    <n v="17000"/>
+    <n v="264"/>
+  </r>
+  <r>
+    <s v="DAE01115189"/>
+    <s v="GA1115 FILTRO DE AIRE - MAZDA CX5"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="B"/>
+    <n v="24000"/>
+    <n v="267"/>
+  </r>
+  <r>
+    <s v="DAE00951189"/>
+    <s v="GA951 FILTRO AIRE - HYUNDAI ATOS"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="17500"/>
+    <n v="267"/>
+  </r>
+  <r>
+    <s v="DLE01003189"/>
+    <s v="G1003 FILTRO ACEITE - MITSUBISHI - NISSAN"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="C"/>
+    <n v="24000"/>
+    <n v="271"/>
+  </r>
+  <r>
+    <s v="DCE01004189"/>
+    <s v="G1004 FILTRO COMBUSTIBLE - MITSUBISHI - FIAT - IVECO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="49000"/>
+    <n v="274"/>
+  </r>
+  <r>
+    <s v="DLS00532189"/>
+    <s v="GS532 FILTRO ACEITE - HINO DUTRO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="44000"/>
+    <n v="276"/>
+  </r>
+  <r>
+    <s v="DAC00037189"/>
+    <s v="DAC037 FILTRO AIRE CABINA INTERNATIONAL 7600"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="AAA"/>
+    <n v="25000"/>
+    <n v="278"/>
+  </r>
+  <r>
+    <s v="DAP08231189"/>
+    <s v="DA8231 FILTRO DE AIRE - MITSUBISHI - FUSO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Elemento Axial"/>
+    <s v="C"/>
+    <n v="143400"/>
+    <n v="285"/>
+  </r>
+  <r>
+    <s v="DLS00552189"/>
+    <s v="GS552 FILTRO ACEITE CHEVROLET N200, SPARK GT, SAIL"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="16500"/>
+    <n v="290"/>
+  </r>
+  <r>
+    <s v="DCE00985189"/>
+    <s v="G985 FILTRO COMBUSTIBLE - HINO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="24000"/>
+    <n v="291"/>
+  </r>
+  <r>
+    <s v="DLS00665189"/>
+    <s v="GS665 FILTRO ACEITE - CUMMINS ISF  FOTON (Tunland, Aumark), JAC"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="B"/>
+    <n v="62000"/>
+    <n v="292"/>
+  </r>
+  <r>
+    <s v="DLE01017189"/>
+    <s v="G1017 FILTRO ACEITE - FOTON TUNLAND G7"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="C"/>
+    <n v="37000"/>
+    <n v="296"/>
+  </r>
+  <r>
+    <s v="DCS00679004"/>
+    <s v="GS679 FILTRO COBUSTIBLE SEPARADOR - JAC - DONG FENG"/>
+    <s v="Industrias Donsson / Filtros / Local / Combustible / Master Combustible Sellado"/>
+    <s v="C"/>
+    <n v="60000"/>
+    <n v="308"/>
+  </r>
+  <r>
+    <s v="DCS00411189"/>
+    <s v="GS411 FILTRO COMBUSTIBLE - HYUNDAI"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="31000"/>
+    <n v="314"/>
+  </r>
+  <r>
+    <s v="DLS00278189"/>
+    <s v="GS278 FILTRO ACEITE - CHEVROLET - FOTON - JAC- JMC"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="35000"/>
+    <n v="320"/>
+  </r>
+  <r>
+    <s v="DLS00207189"/>
+    <s v="GS207 FILTRO ACEITE  MITSUBISHI,KIA, HYUNDAI"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="40000"/>
+    <n v="321"/>
+  </r>
+  <r>
+    <s v="DAE01057189"/>
+    <s v="GA1057 FILTRO AIRE CHEVROLET N200, FOTON MINI TRUCK"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="18800"/>
+    <n v="326"/>
+  </r>
+  <r>
+    <s v="DCS10197189"/>
+    <s v="GS197A1 FILTRO COMBUSTIBLE SEPARADOR - CUMMINS - FORD"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="59000"/>
+    <n v="334"/>
+  </r>
+  <r>
+    <s v="DCE00796189"/>
+    <s v="G796 FILTRO COMBUSTIBLE - NISSAN CABSTAR - URBAN"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="71000"/>
+    <n v="339"/>
+  </r>
+  <r>
+    <s v="DLE00839189"/>
+    <s v="G839 FILTRO ACEITE- CHEVROLET NKR Y NNR REWARD"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="C"/>
+    <n v="30000"/>
+    <n v="341"/>
+  </r>
+  <r>
+    <s v="DLS00070189"/>
+    <s v="GS070 FILTRO ACEITE - CHEVROLET - DAEWOO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="16000"/>
+    <n v="353"/>
+  </r>
+  <r>
+    <s v="DCS00242189"/>
+    <s v="GS242 FILTRO COMBUSTIBLE - CATERPILLAR - JOHN DEERE"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="54000"/>
+    <n v="353"/>
+  </r>
+  <r>
+    <s v="DAE01122189"/>
+    <s v="GA1122 FILTRO AIRE - RENAULT DUSTER CAPTUR SANDERO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="22500"/>
+    <n v="355"/>
+  </r>
+  <r>
+    <s v="DCS10168189"/>
+    <s v="GS168A1 FILTRO COMBUSTIBLE SEPARADOR AGUA. AUTOPARTS"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="65000"/>
+    <n v="364"/>
+  </r>
+  <r>
+    <s v="DAX00392189"/>
+    <s v="GX392  INDICADOR DE SERVICIO PARA CARCASAS DE FILTRO DE AIRE"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
+    <s v="C"/>
+    <n v="89000"/>
+    <n v="367"/>
+  </r>
+  <r>
+    <s v="DLS00024189"/>
+    <s v="GS024 FILTRO ACEITE NISSAN FRONTIER, NP300,URBAN, 2011&gt;"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="28000"/>
+    <n v="372"/>
+  </r>
+  <r>
+    <s v="DCS00235189"/>
+    <s v="GS235 FILTRO COMBUSTIBLE - TOYOTA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="B"/>
+    <n v="32900"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <s v="DCE00906189"/>
+    <s v="G906 FILTRO COMBUSTIBLE 1° HINO EURO IV CON CORONA. Autoparts"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="30000"/>
+    <n v="384"/>
+  </r>
+  <r>
+    <s v="DCS00252189"/>
+    <s v="GS252 FILTRO COMB. - BOBCAT"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="36000"/>
+    <n v="392"/>
+  </r>
+  <r>
+    <s v="DCS00331189"/>
+    <s v="GS331 FILTRO SEPARADOR COMB. - NISSAN FRONTIER Diesel"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="B"/>
+    <n v="32000"/>
+    <n v="398"/>
+  </r>
+  <r>
+    <s v="DLS00052189"/>
+    <s v="GS052 FILTRO ACEITE - MAZDA - KIA -KUBOTA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="11000"/>
+    <n v="418"/>
+  </r>
+  <r>
+    <s v="DCS00605189"/>
+    <s v="GS605 FILTRO COMBUSTIBLE SEPARADOR AGUA - DAF - DOOSAN - SHACMAN"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="97000"/>
+    <n v="418"/>
+  </r>
+  <r>
+    <s v="DCS00627189"/>
+    <s v="GS627 FILTRO COMBUSTIBLE - FOTON, JAC, LIUGONG"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="B"/>
+    <n v="68000"/>
+    <n v="421"/>
+  </r>
+  <r>
+    <s v="DAP08203189"/>
+    <s v="DA8203 FILTRO AIRE XPEC - HINO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
+    <s v="C"/>
+    <n v="254000"/>
+    <n v="431"/>
+  </r>
+  <r>
+    <s v="DAE00868189"/>
+    <s v="GA868 FILTRO AIRE RENAULT KANGOO, METROPOLI, LOGAN. Autoparts"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="25000"/>
+    <n v="451"/>
+  </r>
+  <r>
+    <s v="DAC00121189"/>
+    <s v="DAC121 FILTRO AIRE CABINA INTERNATIONAL DURASTAR 4300"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="B"/>
+    <n v="18000"/>
+    <n v="452"/>
+  </r>
+  <r>
+    <s v="DLS00145189"/>
+    <s v="GS145 FILTRO ACEITE KIA, HYUNDAI,MAZDA,MITSUBISHI,HONDA. Autºparts"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="16000"/>
+    <n v="452"/>
+  </r>
+  <r>
+    <s v="DLS00489189"/>
+    <s v="GS489 FILTRO ACEITE - HYUNDAI - KIA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="14800"/>
+    <n v="469"/>
+  </r>
+  <r>
+    <s v="DCS00243189"/>
+    <s v="GS243 FILTRO COMB. - CATERPILLAR - JOHN DEERE"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="59000"/>
+    <n v="473"/>
+  </r>
+  <r>
+    <s v="DLS00213189"/>
+    <s v="GS213 FILTRO ACEITE CHEV, TOYOTA, NISSAN 791440000421"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="10000"/>
+    <n v="480"/>
+  </r>
+  <r>
+    <s v="DCE00936189"/>
+    <s v="G936 FILTRO COMBUSTIBLE - NISSAN FRONTIER NP300, RENAULT Alaskan"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="31000"/>
+    <n v="483"/>
+  </r>
+  <r>
+    <s v="DCE00937189"/>
+    <s v="G937 FILTRO COMBUSTIBLE TOYOTA HILUX 2.4 Y 2.8 LTS. 2017&gt;"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="23000"/>
+    <n v="487"/>
+  </r>
+  <r>
+    <s v="DAE01137189"/>
+    <s v="GA1137 FILTRO AIRE KIA PICANTO 1.0 Y 1.2"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="29000"/>
+    <n v="489"/>
+  </r>
+  <r>
+    <s v="DCS00272189"/>
+    <s v="GS272 FILTRO COMBUSTIBLE - CATERPILLAR"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="41800"/>
+    <n v="493"/>
+  </r>
+  <r>
+    <s v="DCE00868189"/>
+    <s v="G868 FILTRO COMBUSTIBLE SEPARADOR  HINO FG500"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="41000"/>
+    <n v="499"/>
+  </r>
+  <r>
+    <s v="DAE00822189"/>
+    <s v="GA822 FILTRO AIRE RENAULT MEGANE, CLIO, SANDERO, DUSTER"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="19900"/>
+    <n v="517"/>
+  </r>
+  <r>
+    <s v="DCE10968189"/>
+    <s v="G968KIT FILTRO UREA  SISTEMA DE ESCAPE - FOTON- HINO - VOLKSWAGEN"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="50000"/>
+    <n v="527"/>
+  </r>
+  <r>
+    <s v="DAE01084189"/>
+    <s v="GA1084 FILTRO AIRE CHEVROLET SAIL 2012&gt;"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="19000"/>
+    <n v="530"/>
+  </r>
+  <r>
+    <s v="DLS00117189"/>
+    <s v="GS117 FILTRO ACEITE - MITSUBISHI, HYUNDAI, KIA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="B"/>
+    <n v="32000"/>
+    <n v="542"/>
+  </r>
+  <r>
+    <s v="DCE00990189"/>
+    <s v="G990 FILTRO COMBUSTIBLE SEPARADOR - HINO FC EURO V"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="54000"/>
+    <n v="558"/>
+  </r>
+  <r>
+    <s v="DCE00797189"/>
+    <s v="G797 FILTRO COMBUSTIBLE - HINO DUTRO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="21000"/>
+    <n v="578"/>
+  </r>
+  <r>
+    <s v="DLS00050189"/>
+    <s v="GS050 FILTRO ACEITE - TOYOTA- FORD -"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="17000"/>
+    <n v="595"/>
+  </r>
+  <r>
+    <s v="DCE00991189"/>
+    <s v="G991 FILTRO COMBUSTIBLE SECUNDARIO - HINO FC EURO V"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="48000"/>
+    <n v="608"/>
+  </r>
+  <r>
+    <s v="DLS00268189"/>
+    <s v="GS268 FILTRO ACEITE DUAL NHR"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="25000"/>
+    <n v="616"/>
+  </r>
+  <r>
+    <s v="DCS00540189"/>
+    <s v="GS540 FILTRO COMBUSTIBLE  - CUMMINS"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="B"/>
+    <n v="83000"/>
+    <n v="622"/>
+  </r>
+  <r>
+    <s v="DLE00668189"/>
+    <s v="G668 FILTRO ACEITE  - FREIGHTLINER"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="B"/>
+    <n v="30200"/>
+    <n v="625"/>
+  </r>
+  <r>
+    <s v="DLS00241189"/>
+    <s v="GS241 FILTRO ACEITE RENAULT"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="18000"/>
+    <n v="632"/>
+  </r>
+  <r>
+    <s v="DAC00038189"/>
+    <s v="DAC038 FILTRO AIRE CABINA - FOTON AUMAN- MERCEDES BENZ"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="A"/>
+    <n v="28000"/>
+    <n v="645"/>
+  </r>
+  <r>
+    <s v="DLS00311189"/>
+    <s v="GS311 FILTRO ACEITE - FOTON - JAC - CUMMINS ISF 3.8"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="39000"/>
+    <n v="665"/>
+  </r>
+  <r>
+    <s v="DCS00091189"/>
+    <s v="GS091 FILTRO COMBUSTIBLE CHEVROLET"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="19300"/>
+    <n v="665"/>
+  </r>
+  <r>
+    <s v="DCE00844189"/>
+    <s v="G844 FILTRO COMBUSTIBLE - HINO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="31000"/>
+    <n v="678"/>
+  </r>
+  <r>
+    <s v="DAE01142189"/>
+    <s v="GA1142 FILTRO AIRE - FOTON Minitruck"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="28000"/>
+    <n v="701"/>
+  </r>
+  <r>
+    <s v="DAE01123189"/>
+    <s v="GA1123 FILTRO AIRE NISSAN FRONTIER NP300 2015&gt;"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="26000"/>
+    <n v="705"/>
+  </r>
+  <r>
+    <s v="DCS00060189"/>
+    <s v="GS060 FILTRO COMBUSTIBLE CON DRENAJE IVECO."/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="21000"/>
+    <n v="718"/>
+  </r>
+  <r>
+    <s v="DAC00137189"/>
+    <s v="DAC137 FILTRO AIRE CABINA NISSAN FRONTIER Y PATHFINDER TDI APLICACION x 2 UNIDADES"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="15600"/>
+    <n v="735"/>
+  </r>
+  <r>
+    <s v="DAE01127189"/>
+    <s v="GA1127 FILTRO AIRE TOYOTA HILUX 2.4 LTS. FORTUNER 2017&gt;"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="27500"/>
+    <n v="770"/>
+  </r>
+  <r>
+    <s v="DAC10090189"/>
+    <s v="DAC090A FILTRO AIRE CABINA TOYOTA HILUX"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="C"/>
+    <n v="12900"/>
+    <n v="808"/>
+  </r>
+  <r>
+    <s v="DCE00390189"/>
+    <s v="G390 FILTRO COMBUSTIBLE - PERKINS"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="B"/>
+    <n v="55000"/>
+    <n v="810"/>
+  </r>
+  <r>
+    <s v="DLS00738189"/>
+    <s v="GS738 FILTRO ACEITE - JAC"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="25900"/>
+    <n v="824"/>
+  </r>
+  <r>
+    <s v="DLS00232189"/>
+    <s v="GS232 FILTRO ACEITE  NISSAN, MAZDA, KIA, HYUNDAI"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="16000"/>
+    <n v="827"/>
+  </r>
+  <r>
+    <s v="DAE01089189"/>
+    <s v="GA1089 FILTRO AIRE TUNLAND - FOTON"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
+    <s v="B"/>
+    <n v="30000"/>
+    <n v="830"/>
+  </r>
+  <r>
+    <s v="DCS10310189"/>
+    <s v="GS310A FILTRO COMBUSTIBLE - CUMMINS ISX"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="104000"/>
+    <n v="847"/>
+  </r>
+  <r>
+    <s v="DCS00082189"/>
+    <s v="GS082 FILTRO COMBUSTIBLE - MITSUBISHI"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="B"/>
+    <n v="23000"/>
+    <n v="861"/>
+  </r>
+  <r>
+    <s v="DCS20115189"/>
+    <s v="GS115 FILTRO COMBUSTIBLE - CHEVROLET - MITSUBISHI - HYUNDAI - KIA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="32000"/>
+    <n v="909"/>
+  </r>
+  <r>
+    <s v="DCE00843189"/>
+    <s v="G843 FILTRO COMBUSTIBLE CHEVROLET FFR 2.5, FTR 7.8"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="36200"/>
+    <n v="930"/>
+  </r>
+  <r>
+    <s v="DLS00136189"/>
+    <s v="GS136 FILTRO ACEITE - ISUZU - CASE - CUMMINS"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="56900"/>
+    <n v="971"/>
+  </r>
+  <r>
+    <s v="DLS00295189"/>
+    <s v="GS295 FILTRO ACEITE DUAL - CHEVROLET - ISUZU"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="34800"/>
+    <n v="998"/>
+  </r>
+  <r>
+    <s v="DCS00679189"/>
+    <s v="GS679 FILTRO COMBUSTIBLE  - JAC - DONG FENG"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="C"/>
+    <n v="55000"/>
+    <n v="1018"/>
+  </r>
+  <r>
+    <s v="DLS00457189"/>
+    <s v="GS457 FILTRO ACEITE - TOYOTA"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="25500"/>
+    <n v="1071"/>
+  </r>
+  <r>
+    <s v="DLS00264189"/>
+    <s v="GS264 FILTRO ACEITE - HINO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="68000"/>
+    <n v="1156"/>
+  </r>
+  <r>
+    <s v="DCE00905189"/>
+    <s v="G905 FILTRO COMBUSTUBLE ELEMENTO HINO EURO IV"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="22000"/>
+    <n v="1328"/>
+  </r>
+  <r>
+    <s v="DCS00342189"/>
+    <s v="GS342 FILTRO COMBUSTIBLE SEPARADOR - FOTON - JINBEI, JAC."/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
+    <s v="AAA"/>
+    <n v="54900"/>
+    <n v="1660"/>
+  </r>
+  <r>
+    <s v="DCE00580189"/>
+    <s v="G580 FILTRO COMBUSTIBLE LV150, ISUZU,HINO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
+    <s v="C"/>
+    <n v="29000"/>
+    <n v="2343"/>
+  </r>
+  <r>
+    <s v="DCE00833189"/>
+    <s v="G833 FILTRO COMBUSTIBLE CHEVROLET - ISUZU"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="C"/>
+    <n v="26500"/>
+    <n v="2633"/>
+  </r>
+  <r>
+    <s v="DLS00296189"/>
+    <s v="GS296 FILTRO ACEITE CHEVROLET NPR FLUJO COMPLETO"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
+    <s v="C"/>
+    <n v="34800"/>
+    <n v="3192"/>
+  </r>
+  <r>
+    <s v="DCE00662189"/>
+    <s v="G662 FILTRO COMBUSTIBLE TOYOTA HILUX DIESEL, ISUZU"/>
+    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
+    <s v="B"/>
+    <n v="16200"/>
+    <n v="3315"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D7823CB-E103-4395-84C9-86BBAD55B908}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EAAE572-1A5C-4A23-94E7-ED4CD8D41FFE}" name="Tabla1" displayName="Tabla1" ref="A1:F144" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:F144" xr:uid="{6EAAE572-1A5C-4A23-94E7-ED4CD8D41FFE}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="AAA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{58582F09-2D03-40AD-9C36-B476272B1274}" name="Referencia interna" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2A2FA6F1-0B3D-4B76-9F2E-C2A055260D28}" name="Nombre" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{E70BFFCD-79A1-4B7C-93AA-4C1079A71B5D}" name="Categoría interna" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{51B008D4-141C-4DC5-8AE5-52379D413D3D}" name="Clase" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{5DF9B070-B519-401D-A3D7-B2EDAABEC8C9}" name="Precio de venta" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B99A6819-01DE-4C96-8537-BDF34B6230D9}" name="Cantidad a mano" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1099,7 +2826,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1205,7 +2932,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1347,50 +3074,157 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C921D080-7777-40A4-AA98-B1781B5547BF}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28494417-7F4F-470B-95FA-2FD5488C1CDE}">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="54.44140625" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1405,12 +3239,12 @@
       <c r="E2" s="4">
         <v>4500</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="16">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1425,12 +3259,12 @@
       <c r="E3" s="4">
         <v>18600</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="16">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1445,12 +3279,12 @@
       <c r="E4" s="4">
         <v>22000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="16">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1465,12 +3299,12 @@
       <c r="E5" s="4">
         <v>75000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="16">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1485,12 +3319,12 @@
       <c r="E6" s="4">
         <v>41000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="16">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1505,12 +3339,12 @@
       <c r="E7" s="4">
         <v>18000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="16">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1525,12 +3359,12 @@
       <c r="E8" s="4">
         <v>13000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="16">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1545,12 +3379,12 @@
       <c r="E9" s="4">
         <v>9800</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="16">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1565,12 +3399,12 @@
       <c r="E10" s="4">
         <v>31000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="16">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1585,12 +3419,12 @@
       <c r="E11" s="4">
         <v>86900</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="16">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1605,12 +3439,12 @@
       <c r="E12" s="4">
         <v>42000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="16">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1625,12 +3459,12 @@
       <c r="E13" s="4">
         <v>14900</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="16">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1645,12 +3479,12 @@
       <c r="E14" s="4">
         <v>645200</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="16">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1665,12 +3499,12 @@
       <c r="E15" s="4">
         <v>5600</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="16">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1685,12 +3519,12 @@
       <c r="E16" s="4">
         <v>32000</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="16">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1705,12 +3539,12 @@
       <c r="E17" s="4">
         <v>7800</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="16">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1725,12 +3559,12 @@
       <c r="E18" s="4">
         <v>32000</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="16">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1745,12 +3579,12 @@
       <c r="E19" s="4">
         <v>85000</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="16">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1765,12 +3599,12 @@
       <c r="E20" s="4">
         <v>25000</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="16">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1785,12 +3619,12 @@
       <c r="E21" s="4">
         <v>20000</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="16">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1805,12 +3639,12 @@
       <c r="E22" s="4">
         <v>62000</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="16">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1825,12 +3659,12 @@
       <c r="E23" s="4">
         <v>72000</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="16">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1845,12 +3679,12 @@
       <c r="E24" s="4">
         <v>109900</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="16">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1865,12 +3699,12 @@
       <c r="E25" s="4">
         <v>44000</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="16">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1885,12 +3719,12 @@
       <c r="E26" s="4">
         <v>59000</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="16">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1905,12 +3739,12 @@
       <c r="E27" s="4">
         <v>38000</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="16">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1925,12 +3759,12 @@
       <c r="E28" s="4">
         <v>99900</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="16">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1945,12 +3779,12 @@
       <c r="E29" s="4">
         <v>47900</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="16">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1965,12 +3799,12 @@
       <c r="E30" s="4">
         <v>17000</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="16">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1985,12 +3819,12 @@
       <c r="E31" s="4">
         <v>28000</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="16">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2005,12 +3839,12 @@
       <c r="E32" s="4">
         <v>11000</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="16">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2025,12 +3859,12 @@
       <c r="E33" s="4">
         <v>40000</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="16">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2045,12 +3879,12 @@
       <c r="E34" s="4">
         <v>17900</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="16">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2065,12 +3899,12 @@
       <c r="E35" s="4">
         <v>150000</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="16">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2085,12 +3919,12 @@
       <c r="E36" s="4">
         <v>38000</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="16">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2105,12 +3939,12 @@
       <c r="E37" s="4">
         <v>18000</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="16">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2125,12 +3959,12 @@
       <c r="E38" s="4">
         <v>48000</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="16">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2145,12 +3979,12 @@
       <c r="E39" s="4">
         <v>45000</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="16">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2165,12 +3999,12 @@
       <c r="E40" s="4">
         <v>39000</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="16">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2185,12 +4019,12 @@
       <c r="E41" s="4">
         <v>27000</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="16">
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2205,12 +4039,12 @@
       <c r="E42" s="4">
         <v>20200</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="16">
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2225,12 +4059,12 @@
       <c r="E43" s="4">
         <v>51000</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="16">
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2245,12 +4079,12 @@
       <c r="E44" s="4">
         <v>59000</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="16">
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2265,12 +4099,12 @@
       <c r="E45" s="4">
         <v>18000</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="16">
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2285,12 +4119,12 @@
       <c r="E46" s="4">
         <v>12000</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="16">
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2305,12 +4139,12 @@
       <c r="E47" s="4">
         <v>49000</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="16">
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2325,12 +4159,12 @@
       <c r="E48" s="4">
         <v>20200</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="16">
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2345,12 +4179,12 @@
       <c r="E49" s="4">
         <v>19000</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="16">
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2365,12 +4199,12 @@
       <c r="E50" s="4">
         <v>197000</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="16">
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2385,12 +4219,12 @@
       <c r="E51" s="4">
         <v>350000</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="16">
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2405,12 +4239,12 @@
       <c r="E52" s="4">
         <v>25000</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="16">
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2425,12 +4259,12 @@
       <c r="E53" s="4">
         <v>15500</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="16">
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>120</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2445,12 +4279,12 @@
       <c r="E54" s="4">
         <v>48000</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="16">
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2465,12 +4299,12 @@
       <c r="E55" s="4">
         <v>16200</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="16">
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2485,12 +4319,12 @@
       <c r="E56" s="4">
         <v>45000</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="16">
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2505,12 +4339,12 @@
       <c r="E57" s="4">
         <v>66500</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="16">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2525,12 +4359,12 @@
       <c r="E58" s="4">
         <v>18000</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="16">
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2545,12 +4379,12 @@
       <c r="E59" s="4">
         <v>17000</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="16">
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2565,12 +4399,12 @@
       <c r="E60" s="4">
         <v>24000</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="16">
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2585,12 +4419,12 @@
       <c r="E61" s="4">
         <v>17500</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="16">
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2605,12 +4439,12 @@
       <c r="E62" s="4">
         <v>24000</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="16">
         <v>271</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2625,12 +4459,12 @@
       <c r="E63" s="4">
         <v>49000</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="16">
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2645,12 +4479,12 @@
       <c r="E64" s="4">
         <v>44000</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="16">
         <v>276</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2665,12 +4499,12 @@
       <c r="E65" s="4">
         <v>25000</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="16">
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2685,12 +4519,12 @@
       <c r="E66" s="4">
         <v>143400</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="16">
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2705,12 +4539,12 @@
       <c r="E67" s="4">
         <v>16500</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="16">
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2725,12 +4559,12 @@
       <c r="E68" s="4">
         <v>24000</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="16">
         <v>291</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2745,12 +4579,12 @@
       <c r="E69" s="4">
         <v>62000</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="16">
         <v>292</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2765,12 +4599,12 @@
       <c r="E70" s="4">
         <v>37000</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="16">
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2785,12 +4619,12 @@
       <c r="E71" s="4">
         <v>60000</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="16">
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2805,12 +4639,12 @@
       <c r="E72" s="4">
         <v>31000</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="16">
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2825,12 +4659,12 @@
       <c r="E73" s="4">
         <v>35000</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="16">
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
         <v>162</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2845,12 +4679,12 @@
       <c r="E74" s="4">
         <v>40000</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="16">
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>164</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2865,12 +4699,12 @@
       <c r="E75" s="4">
         <v>18800</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="16">
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2885,12 +4719,12 @@
       <c r="E76" s="4">
         <v>59000</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="16">
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2905,12 +4739,12 @@
       <c r="E77" s="4">
         <v>71000</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="16">
         <v>339</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
         <v>170</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2925,12 +4759,12 @@
       <c r="E78" s="4">
         <v>30000</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="16">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2945,12 +4779,12 @@
       <c r="E79" s="4">
         <v>16000</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="16">
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2965,12 +4799,12 @@
       <c r="E80" s="4">
         <v>54000</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="16">
         <v>353</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
         <v>176</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -2985,12 +4819,12 @@
       <c r="E81" s="4">
         <v>22500</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="16">
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
         <v>178</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3005,12 +4839,12 @@
       <c r="E82" s="4">
         <v>65000</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="16">
         <v>364</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
         <v>180</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3025,12 +4859,12 @@
       <c r="E83" s="4">
         <v>89000</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="16">
         <v>367</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
         <v>182</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3045,12 +4879,12 @@
       <c r="E84" s="4">
         <v>28000</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="16">
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3065,12 +4899,12 @@
       <c r="E85" s="4">
         <v>32900</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="16">
         <v>380</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3085,12 +4919,12 @@
       <c r="E86" s="4">
         <v>30000</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="16">
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
         <v>188</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -3105,12 +4939,12 @@
       <c r="E87" s="4">
         <v>36000</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="16">
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -3125,12 +4959,12 @@
       <c r="E88" s="4">
         <v>32000</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="16">
         <v>398</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
         <v>192</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -3145,12 +4979,12 @@
       <c r="E89" s="4">
         <v>11000</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="16">
         <v>418</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>194</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -3165,12 +4999,12 @@
       <c r="E90" s="4">
         <v>97000</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="16">
         <v>418</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -3185,12 +5019,12 @@
       <c r="E91" s="4">
         <v>68000</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="16">
         <v>421</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
         <v>198</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3205,12 +5039,12 @@
       <c r="E92" s="4">
         <v>254000</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="16">
         <v>431</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -3225,12 +5059,12 @@
       <c r="E93" s="4">
         <v>25000</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="16">
         <v>451</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -3245,12 +5079,12 @@
       <c r="E94" s="4">
         <v>18000</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="16">
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
         <v>204</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -3265,12 +5099,12 @@
       <c r="E95" s="4">
         <v>16000</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="16">
         <v>452</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -3285,12 +5119,12 @@
       <c r="E96" s="4">
         <v>14800</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="16">
         <v>469</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -3305,12 +5139,12 @@
       <c r="E97" s="4">
         <v>59000</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="16">
         <v>473</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -3325,12 +5159,12 @@
       <c r="E98" s="4">
         <v>10000</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="16">
         <v>480</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -3345,12 +5179,12 @@
       <c r="E99" s="4">
         <v>31000</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="16">
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -3365,12 +5199,12 @@
       <c r="E100" s="4">
         <v>23000</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="16">
         <v>487</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
         <v>216</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -3385,12 +5219,12 @@
       <c r="E101" s="4">
         <v>29000</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="16">
         <v>489</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
         <v>218</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -3405,12 +5239,12 @@
       <c r="E102" s="4">
         <v>41800</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="16">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
         <v>220</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -3425,12 +5259,12 @@
       <c r="E103" s="4">
         <v>41000</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="16">
         <v>499</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
         <v>222</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -3445,12 +5279,12 @@
       <c r="E104" s="4">
         <v>19900</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="16">
         <v>517</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
         <v>224</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -3465,12 +5299,12 @@
       <c r="E105" s="4">
         <v>50000</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="16">
         <v>527</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -3485,12 +5319,12 @@
       <c r="E106" s="4">
         <v>19000</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="16">
         <v>530</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
         <v>228</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3505,12 +5339,12 @@
       <c r="E107" s="4">
         <v>32000</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="16">
         <v>542</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
         <v>230</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -3525,12 +5359,12 @@
       <c r="E108" s="4">
         <v>54000</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="16">
         <v>558</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
         <v>232</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -3545,12 +5379,12 @@
       <c r="E109" s="4">
         <v>21000</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="16">
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
         <v>234</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -3565,12 +5399,12 @@
       <c r="E110" s="4">
         <v>17000</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="16">
         <v>595</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -3585,12 +5419,12 @@
       <c r="E111" s="4">
         <v>48000</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="16">
         <v>608</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
         <v>238</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -3605,12 +5439,12 @@
       <c r="E112" s="4">
         <v>25000</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="16">
         <v>616</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>240</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -3625,12 +5459,12 @@
       <c r="E113" s="4">
         <v>83000</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="16">
         <v>622</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
         <v>242</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -3645,12 +5479,12 @@
       <c r="E114" s="4">
         <v>30200</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F114" s="16">
         <v>625</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -3665,12 +5499,12 @@
       <c r="E115" s="4">
         <v>18000</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="16">
         <v>632</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
         <v>246</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -3685,12 +5519,12 @@
       <c r="E116" s="4">
         <v>28000</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="16">
         <v>645</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
         <v>249</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -3705,12 +5539,12 @@
       <c r="E117" s="4">
         <v>39000</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="16">
         <v>665</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
         <v>251</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -3725,12 +5559,12 @@
       <c r="E118" s="4">
         <v>19300</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="16">
         <v>665</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
         <v>253</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -3745,12 +5579,12 @@
       <c r="E119" s="4">
         <v>31000</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="16">
         <v>678</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
         <v>255</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -3765,12 +5599,12 @@
       <c r="E120" s="4">
         <v>28000</v>
       </c>
-      <c r="F120" s="4">
+      <c r="F120" s="16">
         <v>701</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
         <v>257</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -3785,12 +5619,12 @@
       <c r="E121" s="4">
         <v>26000</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="16">
         <v>705</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="s">
         <v>259</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -3805,12 +5639,12 @@
       <c r="E122" s="4">
         <v>21000</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="16">
         <v>718</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
         <v>261</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -3825,12 +5659,12 @@
       <c r="E123" s="4">
         <v>15600</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="16">
         <v>735</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
         <v>263</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -3845,12 +5679,12 @@
       <c r="E124" s="4">
         <v>27500</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F124" s="16">
         <v>770</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
         <v>265</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -3865,12 +5699,12 @@
       <c r="E125" s="4">
         <v>12900</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F125" s="16">
         <v>808</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
         <v>267</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -3885,12 +5719,12 @@
       <c r="E126" s="4">
         <v>55000</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F126" s="16">
         <v>810</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -3905,12 +5739,12 @@
       <c r="E127" s="4">
         <v>25900</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F127" s="16">
         <v>824</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
         <v>271</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -3925,12 +5759,12 @@
       <c r="E128" s="4">
         <v>16000</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F128" s="16">
         <v>827</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
         <v>273</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -3945,12 +5779,12 @@
       <c r="E129" s="4">
         <v>30000</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F129" s="16">
         <v>830</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
         <v>275</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -3965,12 +5799,12 @@
       <c r="E130" s="4">
         <v>104000</v>
       </c>
-      <c r="F130" s="4">
+      <c r="F130" s="16">
         <v>847</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
         <v>277</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -3985,12 +5819,12 @@
       <c r="E131" s="4">
         <v>23000</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="16">
         <v>861</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
         <v>279</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -4005,12 +5839,12 @@
       <c r="E132" s="4">
         <v>32000</v>
       </c>
-      <c r="F132" s="4">
+      <c r="F132" s="16">
         <v>909</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
         <v>281</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -4025,12 +5859,12 @@
       <c r="E133" s="4">
         <v>36200</v>
       </c>
-      <c r="F133" s="4">
+      <c r="F133" s="16">
         <v>930</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
         <v>283</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -4045,12 +5879,12 @@
       <c r="E134" s="4">
         <v>56900</v>
       </c>
-      <c r="F134" s="4">
+      <c r="F134" s="16">
         <v>971</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
         <v>285</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -4065,12 +5899,12 @@
       <c r="E135" s="4">
         <v>34800</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="16">
         <v>998</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
         <v>287</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -4085,12 +5919,12 @@
       <c r="E136" s="4">
         <v>55000</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="16">
         <v>1018</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
         <v>289</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -4105,12 +5939,12 @@
       <c r="E137" s="4">
         <v>25500</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="16">
         <v>1071</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
         <v>291</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -4125,12 +5959,12 @@
       <c r="E138" s="4">
         <v>68000</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="16">
         <v>1156</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
         <v>293</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -4145,12 +5979,12 @@
       <c r="E139" s="4">
         <v>22000</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="16">
         <v>1328</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
         <v>295</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -4165,12 +5999,12 @@
       <c r="E140" s="4">
         <v>54900</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="16">
         <v>1660</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
         <v>297</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -4185,12 +6019,12 @@
       <c r="E141" s="4">
         <v>29000</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="16">
         <v>2343</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
         <v>299</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -4205,12 +6039,12 @@
       <c r="E142" s="4">
         <v>26500</v>
       </c>
-      <c r="F142" s="4">
+      <c r="F142" s="16">
         <v>2633</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
         <v>301</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -4225,31 +6059,34 @@
       <c r="E143" s="4">
         <v>34800</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="16">
         <v>3192</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="24">
         <v>16200</v>
       </c>
-      <c r="F144" s="4">
+      <c r="F144" s="25">
         <v>3315</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/VENTAS/Referencias Promo Autoparts.xlsx
+++ b/VENTAS/Referencias Promo Autoparts.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\donsson\proyectos\VENTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7439F5F7-699C-4EB3-AB12-3F2E7267ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7CE7FF-8F90-4DED-A54A-0889B28B9AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{1F9D57CC-A67F-40A5-9D2E-A147CCFBBDB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1F9D57CC-A67F-40A5-9D2E-A147CCFBBDB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -993,7 +989,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1013,117 +1009,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1244,46 +1129,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,42 +1167,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF1C1C1C"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -1520,13 +1360,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="10"/>
         </left>
@@ -1539,6 +1372,49 @@
         <bottom style="thin">
           <color indexed="10"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1C1C1C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1559,1227 +1435,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Donsson" refreshedDate="45910.616536574074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="143" xr:uid="{CF80AA2A-69E4-489C-95F1-C3A8F6D3AD85}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F144" sheet="Hoja1"/>
-  </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="Referencia interna" numFmtId="49">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Nombre" numFmtId="49">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Categoría interna" numFmtId="49">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Clase" numFmtId="49">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Precio de venta" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4500" maxValue="645200"/>
-    </cacheField>
-    <cacheField name="Cantidad a mano" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="103" maxValue="3315"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="143">
-  <r>
-    <s v="DCE00454189"/>
-    <s v="G454 FILTRO COMBUSTIBLE SUBARU, TOYOTA."/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="4500"/>
-    <n v="103"/>
-  </r>
-  <r>
-    <s v="DLE00909189"/>
-    <s v="G909 FILTRO ACEITE - RENAULT KOLEOS Y MASTER"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="C"/>
-    <n v="18600"/>
-    <n v="104"/>
-  </r>
-  <r>
-    <s v="DAE06784189"/>
-    <s v="GA784 FILTRO AIRE DAIHATSU TERIOS, TOYOTA COROLLA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="22000"/>
-    <n v="104"/>
-  </r>
-  <r>
-    <s v="DCS00740189"/>
-    <s v="GS740 FILTRO COMBUSTIBLE - HINO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="75000"/>
-    <n v="105"/>
-  </r>
-  <r>
-    <s v="DAE00706189"/>
-    <s v="GA706 FILTRO AIRE - NISSAN FRONTIER D22 ANTERIOR A 2015"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
-    <s v="C"/>
-    <n v="41000"/>
-    <n v="109"/>
-  </r>
-  <r>
-    <s v="DCE00563189"/>
-    <s v="G563 FILTRO COMBUSTIBLE CHEVROLET ALTO 1.1, DFSK 1.1  y 1.3 lts"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="18000"/>
-    <n v="112"/>
-  </r>
-  <r>
-    <s v="DAC00066189"/>
-    <s v="DAC066 FILTRO AIRE CABINA HYUNDAI, KIA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="13000"/>
-    <n v="114"/>
-  </r>
-  <r>
-    <s v="DAE06719189"/>
-    <s v="GA719 FILTRO AIRE TOYOTA COROLLA,MAZDA MILLENIA V6."/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="9800"/>
-    <n v="115"/>
-  </r>
-  <r>
-    <s v="DLS00658189"/>
-    <s v="GS658 FILTRO ACITE -CHEV. Luv Dmax 2.5Lts"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="31000"/>
-    <n v="116"/>
-  </r>
-  <r>
-    <s v="DCS00756189"/>
-    <s v="GS756 FILTRO SEPARADOR AGUA/ COMB - SHACMAN"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="86900"/>
-    <n v="118"/>
-  </r>
-  <r>
-    <s v="DCS00343189"/>
-    <s v="GS343 FILTRO COMBUSTIBLE - NISSAN"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="42000"/>
-    <n v="118"/>
-  </r>
-  <r>
-    <s v="DAE06751189"/>
-    <s v="GA751 FILTRO AIRE MAZDA 323I. GAIA."/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="14900"/>
-    <n v="124"/>
-  </r>
-  <r>
-    <s v="DAP08050189"/>
-    <s v="DA8050 FILTRO AIRE XPEC KENWORTH T660-T800"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
-    <s v="C"/>
-    <n v="645200"/>
-    <n v="127"/>
-  </r>
-  <r>
-    <s v="DCE00540189"/>
-    <s v="G540 FILTRO COMB.NISSAN Y-61 1640003J00"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="5600"/>
-    <n v="131"/>
-  </r>
-  <r>
-    <s v="DCE00651189"/>
-    <s v="G651 FILTRO COMBUSTIBLE - ISUZU LV- HITACHI"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="32000"/>
-    <n v="133"/>
-  </r>
-  <r>
-    <s v="DCE00450189"/>
-    <s v="G450 FILTRO COMBUSTIBLE TOYOTA HILUX, COROLLA, DAIHA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="7800"/>
-    <n v="137"/>
-  </r>
-  <r>
-    <s v="DLE00948189"/>
-    <s v="G948 FILTRO ACEITE - HYUNDAI"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="C"/>
-    <n v="32000"/>
-    <n v="140"/>
-  </r>
-  <r>
-    <s v="DLS00077189"/>
-    <s v="GS077 FILTRO ACEITE BY PASS - CUMMINS - CAT - GMC"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="85000"/>
-    <n v="141"/>
-  </r>
-  <r>
-    <s v="DAE10981189"/>
-    <s v="GA981A FILTRO AIRE - MITSUBISHI SPORTERO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="25000"/>
-    <n v="141"/>
-  </r>
-  <r>
-    <s v="DAE00699189"/>
-    <s v="GA699 FILTRO AIRE - RENAULT LOGAN"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="B"/>
-    <n v="20000"/>
-    <n v="145"/>
-  </r>
-  <r>
-    <s v="DCS00758189"/>
-    <s v="GS758 FILTRO COMBUSTIBLE - CUMMINS ISZ - SHACMAN"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="62000"/>
-    <n v="146"/>
-  </r>
-  <r>
-    <s v="DLE00664189"/>
-    <s v="G664 FILTRO ACEITE - MERCEDES BENZ"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="C"/>
-    <n v="72000"/>
-    <n v="146"/>
-  </r>
-  <r>
-    <s v="DCS00757189"/>
-    <s v="GS757 FILTRO COMBUSTIBLE - CUMMINS - SHACMAN CON SENSOR"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="109900"/>
-    <n v="147"/>
-  </r>
-  <r>
-    <s v="DCE00663189"/>
-    <s v="G663 FILTRO COMBUSTIBLE - MERCEDES Actross, FREIGHTLINER M2,"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="B"/>
-    <n v="44000"/>
-    <n v="156"/>
-  </r>
-  <r>
-    <s v="DWS00303189"/>
-    <s v="GS303 FILTRO SISTEMA DE ENFRIAMIENTO - CUMMINS ISX sin quimico - IHC - KENWORTH"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Enfriamiento / Autoparts Enfriamiento Sellado"/>
-    <s v="C"/>
-    <n v="59000"/>
-    <n v="157"/>
-  </r>
-  <r>
-    <s v="DAS00719189"/>
-    <s v="GS719 FILTRO SEPAR. ACEITE / AIRE - IHC - DAF - FORD - CUMMINS"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="38000"/>
-    <n v="159"/>
-  </r>
-  <r>
-    <s v="DAS00743189"/>
-    <s v="GS743 FILTRO SECADOR DE AIRE COALESCENTE - KENWORTH - FOTON - SHACMAN"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="99900"/>
-    <n v="161"/>
-  </r>
-  <r>
-    <s v="DCE01018189"/>
-    <s v="G1018 FILTRO COMBUSTIBLE - FOTON TUNLAND G7"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="47900"/>
-    <n v="161"/>
-  </r>
-  <r>
-    <s v="DAC00116189"/>
-    <s v="DAC116 FILTRO AIRE CABINA - FOTON TUNLAND"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="B"/>
-    <n v="17000"/>
-    <n v="165"/>
-  </r>
-  <r>
-    <s v="DCE01010189"/>
-    <s v="G1010 FILTRO COMBUSTIBLE SEPARADOR - HINO DUTRO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="28000"/>
-    <n v="168"/>
-  </r>
-  <r>
-    <s v="DCE00484189"/>
-    <s v="G484 FILTRO COMBUTIBLE CHEVROLET SWIFT 1.3 INYECCION"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="11000"/>
-    <n v="173"/>
-  </r>
-  <r>
-    <s v="DAE01121189"/>
-    <s v="GA1121 FILTRO AIRE - FORD ESCAPE"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="B"/>
-    <n v="40000"/>
-    <n v="175"/>
-  </r>
-  <r>
-    <s v="DAE00980189"/>
-    <s v="GA980 FILTRO AIRE CHEVROLET AVEO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="17900"/>
-    <n v="177"/>
-  </r>
-  <r>
-    <s v="DAE08260189"/>
-    <s v="DA8260 FILTRO AIRE - VOLKSWAGEN DELIVERY"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
-    <s v="C"/>
-    <n v="150000"/>
-    <n v="178"/>
-  </r>
-  <r>
-    <s v="DCE01011189"/>
-    <s v="G1011 FILTRO COMBUSTIBLE - HINO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="38000"/>
-    <n v="179"/>
-  </r>
-  <r>
-    <s v="DCE00653189"/>
-    <s v="G653 FILTRO COMBUSTIBLE - CHEVROLET AVEO, OPTRA, SPARK"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="18000"/>
-    <n v="180"/>
-  </r>
-  <r>
-    <s v="DAR08255189"/>
-    <s v="DA9255 FILTRO AIRE SEGURIDAD - HITACHI - MAHINDRA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
-    <s v="C"/>
-    <n v="48000"/>
-    <n v="181"/>
-  </r>
-  <r>
-    <s v="DLE01009189"/>
-    <s v="G1009 FILTRO ACEITE - HINO DUTRO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="C"/>
-    <n v="45000"/>
-    <n v="183"/>
-  </r>
-  <r>
-    <s v="DAR09198189"/>
-    <s v="DA9198 FILTRO AIRE SEGURIDAD - YANMAR - HITACHI"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
-    <s v="C"/>
-    <n v="39000"/>
-    <n v="191"/>
-  </r>
-  <r>
-    <s v="DCS10014189"/>
-    <s v="GS014A FILTRO COMBUSTIBLE - CUMMINS"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="27000"/>
-    <n v="192"/>
-  </r>
-  <r>
-    <s v="DAE01026189"/>
-    <s v="GA1026 FILTRO AIRE - RENAULT Twingo Fase 3"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="20200"/>
-    <n v="199"/>
-  </r>
-  <r>
-    <s v="DLE00726189"/>
-    <s v="G726 FILTRO ACEITE - FREIGHTLINER"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="B"/>
-    <n v="51000"/>
-    <n v="204"/>
-  </r>
-  <r>
-    <s v="DCE00633189"/>
-    <s v="G633 FILTRO SEPARADOR COMBUSTIBLE - IHC - DAVCO - DETROIT"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="59000"/>
-    <n v="207"/>
-  </r>
-  <r>
-    <s v="DAE01072189"/>
-    <s v="GA1072 FILTRO AIRE - CHEVROLET BEAT, SPARK"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="B"/>
-    <n v="18000"/>
-    <n v="207"/>
-  </r>
-  <r>
-    <s v="DAC00087189"/>
-    <s v="DAC087 FILTRO AIRE  CABINA FREIGHTLINER Business Class. Autoparts"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="12000"/>
-    <n v="209"/>
-  </r>
-  <r>
-    <s v="DCE00609189"/>
-    <s v="G609 FILTRO COMBUSTIBLE - MERCEDES BENZ - FREIGHTLINER"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="49000"/>
-    <n v="210"/>
-  </r>
-  <r>
-    <s v="DCE00582189"/>
-    <s v="G582 FILTRO COMBUSTIBLE HYUNDAI ATOS"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="20200"/>
-    <n v="220"/>
-  </r>
-  <r>
-    <s v="DAE01079189"/>
-    <s v="GA1079 FILTRO AIRE - FORD FIESTA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="19000"/>
-    <n v="232"/>
-  </r>
-  <r>
-    <s v="DAP18208189"/>
-    <s v="DA8208KIT FILTRO AIRE JUEGO - CASE - JCB"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Elemento Axial"/>
-    <s v="C"/>
-    <n v="197000"/>
-    <n v="234"/>
-  </r>
-  <r>
-    <s v="DAP18175189"/>
-    <s v="DA8175 FILTRO AIRE - IHC"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="350000"/>
-    <n v="234"/>
-  </r>
-  <r>
-    <s v="DCS00035189"/>
-    <s v="GS035 FILTRO COMB. - CUMMINS"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="B"/>
-    <n v="25000"/>
-    <n v="236"/>
-  </r>
-  <r>
-    <s v="DAE01096189"/>
-    <s v="GA1096 FILTRO AIRE - NISSAN MARCH, VERSA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="B"/>
-    <n v="15500"/>
-    <n v="244"/>
-  </r>
-  <r>
-    <s v="DLE00708189"/>
-    <s v="G708 FILTRO ACEITE FULL FLOW - HYUNDAI"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="B"/>
-    <n v="48000"/>
-    <n v="245"/>
-  </r>
-  <r>
-    <s v="DAC00036189"/>
-    <s v="DAC036 FILTRO AIRE CABINA CHEV.AVEO Y EMOTION"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="16200"/>
-    <n v="245"/>
-  </r>
-  <r>
-    <s v="DCE00764189"/>
-    <s v="G764 FILTRO SEPARDOR COMBUSTIBLE - DAVCO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="B"/>
-    <n v="45000"/>
-    <n v="247"/>
-  </r>
-  <r>
-    <s v="DCE01019189"/>
-    <s v="G1019 FILTRO COMBUSTIBLE - FOTON MILER"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="66500"/>
-    <n v="249"/>
-  </r>
-  <r>
-    <s v="DCE00929189"/>
-    <s v="G929 FILTRO COMBUSTIBLE - FORD Ranger Diesel- MAZDA BT50"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="18000"/>
-    <n v="253"/>
-  </r>
-  <r>
-    <s v="DLE00634189"/>
-    <s v="G634 FILTRO ACEITE NISSAN URVAN 2004"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="C"/>
-    <n v="17000"/>
-    <n v="264"/>
-  </r>
-  <r>
-    <s v="DAE01115189"/>
-    <s v="GA1115 FILTRO DE AIRE - MAZDA CX5"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="B"/>
-    <n v="24000"/>
-    <n v="267"/>
-  </r>
-  <r>
-    <s v="DAE00951189"/>
-    <s v="GA951 FILTRO AIRE - HYUNDAI ATOS"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="17500"/>
-    <n v="267"/>
-  </r>
-  <r>
-    <s v="DLE01003189"/>
-    <s v="G1003 FILTRO ACEITE - MITSUBISHI - NISSAN"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="C"/>
-    <n v="24000"/>
-    <n v="271"/>
-  </r>
-  <r>
-    <s v="DCE01004189"/>
-    <s v="G1004 FILTRO COMBUSTIBLE - MITSUBISHI - FIAT - IVECO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="49000"/>
-    <n v="274"/>
-  </r>
-  <r>
-    <s v="DLS00532189"/>
-    <s v="GS532 FILTRO ACEITE - HINO DUTRO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="44000"/>
-    <n v="276"/>
-  </r>
-  <r>
-    <s v="DAC00037189"/>
-    <s v="DAC037 FILTRO AIRE CABINA INTERNATIONAL 7600"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="AAA"/>
-    <n v="25000"/>
-    <n v="278"/>
-  </r>
-  <r>
-    <s v="DAP08231189"/>
-    <s v="DA8231 FILTRO DE AIRE - MITSUBISHI - FUSO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Elemento Axial"/>
-    <s v="C"/>
-    <n v="143400"/>
-    <n v="285"/>
-  </r>
-  <r>
-    <s v="DLS00552189"/>
-    <s v="GS552 FILTRO ACEITE CHEVROLET N200, SPARK GT, SAIL"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="16500"/>
-    <n v="290"/>
-  </r>
-  <r>
-    <s v="DCE00985189"/>
-    <s v="G985 FILTRO COMBUSTIBLE - HINO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="24000"/>
-    <n v="291"/>
-  </r>
-  <r>
-    <s v="DLS00665189"/>
-    <s v="GS665 FILTRO ACEITE - CUMMINS ISF  FOTON (Tunland, Aumark), JAC"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="B"/>
-    <n v="62000"/>
-    <n v="292"/>
-  </r>
-  <r>
-    <s v="DLE01017189"/>
-    <s v="G1017 FILTRO ACEITE - FOTON TUNLAND G7"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="C"/>
-    <n v="37000"/>
-    <n v="296"/>
-  </r>
-  <r>
-    <s v="DCS00679004"/>
-    <s v="GS679 FILTRO COBUSTIBLE SEPARADOR - JAC - DONG FENG"/>
-    <s v="Industrias Donsson / Filtros / Local / Combustible / Master Combustible Sellado"/>
-    <s v="C"/>
-    <n v="60000"/>
-    <n v="308"/>
-  </r>
-  <r>
-    <s v="DCS00411189"/>
-    <s v="GS411 FILTRO COMBUSTIBLE - HYUNDAI"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="31000"/>
-    <n v="314"/>
-  </r>
-  <r>
-    <s v="DLS00278189"/>
-    <s v="GS278 FILTRO ACEITE - CHEVROLET - FOTON - JAC- JMC"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="35000"/>
-    <n v="320"/>
-  </r>
-  <r>
-    <s v="DLS00207189"/>
-    <s v="GS207 FILTRO ACEITE  MITSUBISHI,KIA, HYUNDAI"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="40000"/>
-    <n v="321"/>
-  </r>
-  <r>
-    <s v="DAE01057189"/>
-    <s v="GA1057 FILTRO AIRE CHEVROLET N200, FOTON MINI TRUCK"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="18800"/>
-    <n v="326"/>
-  </r>
-  <r>
-    <s v="DCS10197189"/>
-    <s v="GS197A1 FILTRO COMBUSTIBLE SEPARADOR - CUMMINS - FORD"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="59000"/>
-    <n v="334"/>
-  </r>
-  <r>
-    <s v="DCE00796189"/>
-    <s v="G796 FILTRO COMBUSTIBLE - NISSAN CABSTAR - URBAN"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="71000"/>
-    <n v="339"/>
-  </r>
-  <r>
-    <s v="DLE00839189"/>
-    <s v="G839 FILTRO ACEITE- CHEVROLET NKR Y NNR REWARD"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="C"/>
-    <n v="30000"/>
-    <n v="341"/>
-  </r>
-  <r>
-    <s v="DLS00070189"/>
-    <s v="GS070 FILTRO ACEITE - CHEVROLET - DAEWOO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="16000"/>
-    <n v="353"/>
-  </r>
-  <r>
-    <s v="DCS00242189"/>
-    <s v="GS242 FILTRO COMBUSTIBLE - CATERPILLAR - JOHN DEERE"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="54000"/>
-    <n v="353"/>
-  </r>
-  <r>
-    <s v="DAE01122189"/>
-    <s v="GA1122 FILTRO AIRE - RENAULT DUSTER CAPTUR SANDERO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="22500"/>
-    <n v="355"/>
-  </r>
-  <r>
-    <s v="DCS10168189"/>
-    <s v="GS168A1 FILTRO COMBUSTIBLE SEPARADOR AGUA. AUTOPARTS"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="65000"/>
-    <n v="364"/>
-  </r>
-  <r>
-    <s v="DAX00392189"/>
-    <s v="GX392  INDICADOR DE SERVICIO PARA CARCASAS DE FILTRO DE AIRE"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
-    <s v="C"/>
-    <n v="89000"/>
-    <n v="367"/>
-  </r>
-  <r>
-    <s v="DLS00024189"/>
-    <s v="GS024 FILTRO ACEITE NISSAN FRONTIER, NP300,URBAN, 2011&gt;"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="28000"/>
-    <n v="372"/>
-  </r>
-  <r>
-    <s v="DCS00235189"/>
-    <s v="GS235 FILTRO COMBUSTIBLE - TOYOTA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="B"/>
-    <n v="32900"/>
-    <n v="380"/>
-  </r>
-  <r>
-    <s v="DCE00906189"/>
-    <s v="G906 FILTRO COMBUSTIBLE 1° HINO EURO IV CON CORONA. Autoparts"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="30000"/>
-    <n v="384"/>
-  </r>
-  <r>
-    <s v="DCS00252189"/>
-    <s v="GS252 FILTRO COMB. - BOBCAT"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="36000"/>
-    <n v="392"/>
-  </r>
-  <r>
-    <s v="DCS00331189"/>
-    <s v="GS331 FILTRO SEPARADOR COMB. - NISSAN FRONTIER Diesel"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="B"/>
-    <n v="32000"/>
-    <n v="398"/>
-  </r>
-  <r>
-    <s v="DLS00052189"/>
-    <s v="GS052 FILTRO ACEITE - MAZDA - KIA -KUBOTA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="11000"/>
-    <n v="418"/>
-  </r>
-  <r>
-    <s v="DCS00605189"/>
-    <s v="GS605 FILTRO COMBUSTIBLE SEPARADOR AGUA - DAF - DOOSAN - SHACMAN"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="97000"/>
-    <n v="418"/>
-  </r>
-  <r>
-    <s v="DCS00627189"/>
-    <s v="GS627 FILTRO COMBUSTIBLE - FOTON, JAC, LIUGONG"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="B"/>
-    <n v="68000"/>
-    <n v="421"/>
-  </r>
-  <r>
-    <s v="DAP08203189"/>
-    <s v="DA8203 FILTRO AIRE XPEC - HINO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Redondo"/>
-    <s v="C"/>
-    <n v="254000"/>
-    <n v="431"/>
-  </r>
-  <r>
-    <s v="DAE00868189"/>
-    <s v="GA868 FILTRO AIRE RENAULT KANGOO, METROPOLI, LOGAN. Autoparts"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="25000"/>
-    <n v="451"/>
-  </r>
-  <r>
-    <s v="DAC00121189"/>
-    <s v="DAC121 FILTRO AIRE CABINA INTERNATIONAL DURASTAR 4300"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="B"/>
-    <n v="18000"/>
-    <n v="452"/>
-  </r>
-  <r>
-    <s v="DLS00145189"/>
-    <s v="GS145 FILTRO ACEITE KIA, HYUNDAI,MAZDA,MITSUBISHI,HONDA. Autºparts"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="16000"/>
-    <n v="452"/>
-  </r>
-  <r>
-    <s v="DLS00489189"/>
-    <s v="GS489 FILTRO ACEITE - HYUNDAI - KIA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="14800"/>
-    <n v="469"/>
-  </r>
-  <r>
-    <s v="DCS00243189"/>
-    <s v="GS243 FILTRO COMB. - CATERPILLAR - JOHN DEERE"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="59000"/>
-    <n v="473"/>
-  </r>
-  <r>
-    <s v="DLS00213189"/>
-    <s v="GS213 FILTRO ACEITE CHEV, TOYOTA, NISSAN 791440000421"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="10000"/>
-    <n v="480"/>
-  </r>
-  <r>
-    <s v="DCE00936189"/>
-    <s v="G936 FILTRO COMBUSTIBLE - NISSAN FRONTIER NP300, RENAULT Alaskan"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="31000"/>
-    <n v="483"/>
-  </r>
-  <r>
-    <s v="DCE00937189"/>
-    <s v="G937 FILTRO COMBUSTIBLE TOYOTA HILUX 2.4 Y 2.8 LTS. 2017&gt;"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="23000"/>
-    <n v="487"/>
-  </r>
-  <r>
-    <s v="DAE01137189"/>
-    <s v="GA1137 FILTRO AIRE KIA PICANTO 1.0 Y 1.2"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="29000"/>
-    <n v="489"/>
-  </r>
-  <r>
-    <s v="DCS00272189"/>
-    <s v="GS272 FILTRO COMBUSTIBLE - CATERPILLAR"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="41800"/>
-    <n v="493"/>
-  </r>
-  <r>
-    <s v="DCE00868189"/>
-    <s v="G868 FILTRO COMBUSTIBLE SEPARADOR  HINO FG500"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="41000"/>
-    <n v="499"/>
-  </r>
-  <r>
-    <s v="DAE00822189"/>
-    <s v="GA822 FILTRO AIRE RENAULT MEGANE, CLIO, SANDERO, DUSTER"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="19900"/>
-    <n v="517"/>
-  </r>
-  <r>
-    <s v="DCE10968189"/>
-    <s v="G968KIT FILTRO UREA  SISTEMA DE ESCAPE - FOTON- HINO - VOLKSWAGEN"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="50000"/>
-    <n v="527"/>
-  </r>
-  <r>
-    <s v="DAE01084189"/>
-    <s v="GA1084 FILTRO AIRE CHEVROLET SAIL 2012&gt;"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="19000"/>
-    <n v="530"/>
-  </r>
-  <r>
-    <s v="DLS00117189"/>
-    <s v="GS117 FILTRO ACEITE - MITSUBISHI, HYUNDAI, KIA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="B"/>
-    <n v="32000"/>
-    <n v="542"/>
-  </r>
-  <r>
-    <s v="DCE00990189"/>
-    <s v="G990 FILTRO COMBUSTIBLE SEPARADOR - HINO FC EURO V"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="54000"/>
-    <n v="558"/>
-  </r>
-  <r>
-    <s v="DCE00797189"/>
-    <s v="G797 FILTRO COMBUSTIBLE - HINO DUTRO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="21000"/>
-    <n v="578"/>
-  </r>
-  <r>
-    <s v="DLS00050189"/>
-    <s v="GS050 FILTRO ACEITE - TOYOTA- FORD -"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="17000"/>
-    <n v="595"/>
-  </r>
-  <r>
-    <s v="DCE00991189"/>
-    <s v="G991 FILTRO COMBUSTIBLE SECUNDARIO - HINO FC EURO V"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="48000"/>
-    <n v="608"/>
-  </r>
-  <r>
-    <s v="DLS00268189"/>
-    <s v="GS268 FILTRO ACEITE DUAL NHR"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="25000"/>
-    <n v="616"/>
-  </r>
-  <r>
-    <s v="DCS00540189"/>
-    <s v="GS540 FILTRO COMBUSTIBLE  - CUMMINS"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="B"/>
-    <n v="83000"/>
-    <n v="622"/>
-  </r>
-  <r>
-    <s v="DLE00668189"/>
-    <s v="G668 FILTRO ACEITE  - FREIGHTLINER"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="B"/>
-    <n v="30200"/>
-    <n v="625"/>
-  </r>
-  <r>
-    <s v="DLS00241189"/>
-    <s v="GS241 FILTRO ACEITE RENAULT"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="18000"/>
-    <n v="632"/>
-  </r>
-  <r>
-    <s v="DAC00038189"/>
-    <s v="DAC038 FILTRO AIRE CABINA - FOTON AUMAN- MERCEDES BENZ"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="A"/>
-    <n v="28000"/>
-    <n v="645"/>
-  </r>
-  <r>
-    <s v="DLS00311189"/>
-    <s v="GS311 FILTRO ACEITE - FOTON - JAC - CUMMINS ISF 3.8"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="39000"/>
-    <n v="665"/>
-  </r>
-  <r>
-    <s v="DCS00091189"/>
-    <s v="GS091 FILTRO COMBUSTIBLE CHEVROLET"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="19300"/>
-    <n v="665"/>
-  </r>
-  <r>
-    <s v="DCE00844189"/>
-    <s v="G844 FILTRO COMBUSTIBLE - HINO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="31000"/>
-    <n v="678"/>
-  </r>
-  <r>
-    <s v="DAE01142189"/>
-    <s v="GA1142 FILTRO AIRE - FOTON Minitruck"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="28000"/>
-    <n v="701"/>
-  </r>
-  <r>
-    <s v="DAE01123189"/>
-    <s v="GA1123 FILTRO AIRE NISSAN FRONTIER NP300 2015&gt;"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="26000"/>
-    <n v="705"/>
-  </r>
-  <r>
-    <s v="DCS00060189"/>
-    <s v="GS060 FILTRO COMBUSTIBLE CON DRENAJE IVECO."/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="21000"/>
-    <n v="718"/>
-  </r>
-  <r>
-    <s v="DAC00137189"/>
-    <s v="DAC137 FILTRO AIRE CABINA NISSAN FRONTIER Y PATHFINDER TDI APLICACION x 2 UNIDADES"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="15600"/>
-    <n v="735"/>
-  </r>
-  <r>
-    <s v="DAE01127189"/>
-    <s v="GA1127 FILTRO AIRE TOYOTA HILUX 2.4 LTS. FORTUNER 2017&gt;"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="27500"/>
-    <n v="770"/>
-  </r>
-  <r>
-    <s v="DAC10090189"/>
-    <s v="DAC090A FILTRO AIRE CABINA TOYOTA HILUX"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="C"/>
-    <n v="12900"/>
-    <n v="808"/>
-  </r>
-  <r>
-    <s v="DCE00390189"/>
-    <s v="G390 FILTRO COMBUSTIBLE - PERKINS"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="B"/>
-    <n v="55000"/>
-    <n v="810"/>
-  </r>
-  <r>
-    <s v="DLS00738189"/>
-    <s v="GS738 FILTRO ACEITE - JAC"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="25900"/>
-    <n v="824"/>
-  </r>
-  <r>
-    <s v="DLS00232189"/>
-    <s v="GS232 FILTRO ACEITE  NISSAN, MAZDA, KIA, HYUNDAI"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="16000"/>
-    <n v="827"/>
-  </r>
-  <r>
-    <s v="DAE01089189"/>
-    <s v="GA1089 FILTRO AIRE TUNLAND - FOTON"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aire / Autoparts Aire Cuadrado"/>
-    <s v="B"/>
-    <n v="30000"/>
-    <n v="830"/>
-  </r>
-  <r>
-    <s v="DCS10310189"/>
-    <s v="GS310A FILTRO COMBUSTIBLE - CUMMINS ISX"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="104000"/>
-    <n v="847"/>
-  </r>
-  <r>
-    <s v="DCS00082189"/>
-    <s v="GS082 FILTRO COMBUSTIBLE - MITSUBISHI"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="B"/>
-    <n v="23000"/>
-    <n v="861"/>
-  </r>
-  <r>
-    <s v="DCS20115189"/>
-    <s v="GS115 FILTRO COMBUSTIBLE - CHEVROLET - MITSUBISHI - HYUNDAI - KIA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="32000"/>
-    <n v="909"/>
-  </r>
-  <r>
-    <s v="DCE00843189"/>
-    <s v="G843 FILTRO COMBUSTIBLE CHEVROLET FFR 2.5, FTR 7.8"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="36200"/>
-    <n v="930"/>
-  </r>
-  <r>
-    <s v="DLS00136189"/>
-    <s v="GS136 FILTRO ACEITE - ISUZU - CASE - CUMMINS"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="56900"/>
-    <n v="971"/>
-  </r>
-  <r>
-    <s v="DLS00295189"/>
-    <s v="GS295 FILTRO ACEITE DUAL - CHEVROLET - ISUZU"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="34800"/>
-    <n v="998"/>
-  </r>
-  <r>
-    <s v="DCS00679189"/>
-    <s v="GS679 FILTRO COMBUSTIBLE  - JAC - DONG FENG"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="C"/>
-    <n v="55000"/>
-    <n v="1018"/>
-  </r>
-  <r>
-    <s v="DLS00457189"/>
-    <s v="GS457 FILTRO ACEITE - TOYOTA"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="25500"/>
-    <n v="1071"/>
-  </r>
-  <r>
-    <s v="DLS00264189"/>
-    <s v="GS264 FILTRO ACEITE - HINO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="68000"/>
-    <n v="1156"/>
-  </r>
-  <r>
-    <s v="DCE00905189"/>
-    <s v="G905 FILTRO COMBUSTUBLE ELEMENTO HINO EURO IV"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="22000"/>
-    <n v="1328"/>
-  </r>
-  <r>
-    <s v="DCS00342189"/>
-    <s v="GS342 FILTRO COMBUSTIBLE SEPARADOR - FOTON - JINBEI, JAC."/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Sellado"/>
-    <s v="AAA"/>
-    <n v="54900"/>
-    <n v="1660"/>
-  </r>
-  <r>
-    <s v="DCE00580189"/>
-    <s v="G580 FILTRO COMBUSTIBLE LV150, ISUZU,HINO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Elemento"/>
-    <s v="C"/>
-    <n v="29000"/>
-    <n v="2343"/>
-  </r>
-  <r>
-    <s v="DCE00833189"/>
-    <s v="G833 FILTRO COMBUSTIBLE CHEVROLET - ISUZU"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="C"/>
-    <n v="26500"/>
-    <n v="2633"/>
-  </r>
-  <r>
-    <s v="DLS00296189"/>
-    <s v="GS296 FILTRO ACEITE CHEVROLET NPR FLUJO COMPLETO"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Aceite / Autoparts Aceite Sellado"/>
-    <s v="C"/>
-    <n v="34800"/>
-    <n v="3192"/>
-  </r>
-  <r>
-    <s v="DCE00662189"/>
-    <s v="G662 FILTRO COMBUSTIBLE TOYOTA HILUX DIESEL, ISUZU"/>
-    <s v="Industrias Donsson / Filtros / Autoparts / Importado / Combustible / Autoparts Combustible Elemento"/>
-    <s v="B"/>
-    <n v="16200"/>
-    <n v="3315"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D7823CB-E103-4395-84C9-86BBAD55B908}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EAAE572-1A5C-4A23-94E7-ED4CD8D41FFE}" name="Tabla1" displayName="Tabla1" ref="A1:F144" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:F144" xr:uid="{6EAAE572-1A5C-4A23-94E7-ED4CD8D41FFE}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="AAA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EAAE572-1A5C-4A23-94E7-ED4CD8D41FFE}" name="Tabla1" displayName="Tabla1" ref="A1:F144" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F144" xr:uid="{6EAAE572-1A5C-4A23-94E7-ED4CD8D41FFE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{58582F09-2D03-40AD-9C36-B476272B1274}" name="Referencia interna" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2A2FA6F1-0B3D-4B76-9F2E-C2A055260D28}" name="Nombre" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E70BFFCD-79A1-4B7C-93AA-4C1079A71B5D}" name="Categoría interna" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{51B008D4-141C-4DC5-8AE5-52379D413D3D}" name="Clase" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{5DF9B070-B519-401D-A3D7-B2EDAABEC8C9}" name="Precio de venta" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B99A6819-01DE-4C96-8537-BDF34B6230D9}" name="Cantidad a mano" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{58582F09-2D03-40AD-9C36-B476272B1274}" name="Referencia interna" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2A2FA6F1-0B3D-4B76-9F2E-C2A055260D28}" name="Nombre" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E70BFFCD-79A1-4B7C-93AA-4C1079A71B5D}" name="Categoría interna" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{51B008D4-141C-4DC5-8AE5-52379D413D3D}" name="Clase" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5DF9B070-B519-401D-A3D7-B2EDAABEC8C9}" name="Precio de venta" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B99A6819-01DE-4C96-8537-BDF34B6230D9}" name="Cantidad a mano" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3081,116 +1746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C921D080-7777-40A4-AA98-B1781B5547BF}">
-  <dimension ref="A3:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28494417-7F4F-470B-95FA-2FD5488C1CDE}">
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,27 +1764,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3239,12 +1799,12 @@
       <c r="E2" s="4">
         <v>4500</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="7">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3259,12 +1819,12 @@
       <c r="E3" s="4">
         <v>18600</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="7">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3279,12 +1839,12 @@
       <c r="E4" s="4">
         <v>22000</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="7">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3299,12 +1859,12 @@
       <c r="E5" s="4">
         <v>75000</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="7">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3319,12 +1879,12 @@
       <c r="E6" s="4">
         <v>41000</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="7">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3339,12 +1899,12 @@
       <c r="E7" s="4">
         <v>18000</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="7">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3359,12 +1919,12 @@
       <c r="E8" s="4">
         <v>13000</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="7">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3379,12 +1939,12 @@
       <c r="E9" s="4">
         <v>9800</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="7">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3399,12 +1959,12 @@
       <c r="E10" s="4">
         <v>31000</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="7">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3419,12 +1979,12 @@
       <c r="E11" s="4">
         <v>86900</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="7">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3439,12 +1999,12 @@
       <c r="E12" s="4">
         <v>42000</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="7">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3459,12 +2019,12 @@
       <c r="E13" s="4">
         <v>14900</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="7">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3479,12 +2039,12 @@
       <c r="E14" s="4">
         <v>645200</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="7">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3499,12 +2059,12 @@
       <c r="E15" s="4">
         <v>5600</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="7">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3519,12 +2079,12 @@
       <c r="E16" s="4">
         <v>32000</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="7">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3539,12 +2099,12 @@
       <c r="E17" s="4">
         <v>7800</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="7">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3559,12 +2119,12 @@
       <c r="E18" s="4">
         <v>32000</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="7">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3579,12 +2139,12 @@
       <c r="E19" s="4">
         <v>85000</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="7">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3599,12 +2159,12 @@
       <c r="E20" s="4">
         <v>25000</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="7">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3619,12 +2179,12 @@
       <c r="E21" s="4">
         <v>20000</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="7">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3639,12 +2199,12 @@
       <c r="E22" s="4">
         <v>62000</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="7">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3659,12 +2219,12 @@
       <c r="E23" s="4">
         <v>72000</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="7">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3679,12 +2239,12 @@
       <c r="E24" s="4">
         <v>109900</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="7">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3699,12 +2259,12 @@
       <c r="E25" s="4">
         <v>44000</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="7">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3719,12 +2279,12 @@
       <c r="E26" s="4">
         <v>59000</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="7">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3739,12 +2299,12 @@
       <c r="E27" s="4">
         <v>38000</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="7">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3759,12 +2319,12 @@
       <c r="E28" s="4">
         <v>99900</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="7">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3779,12 +2339,12 @@
       <c r="E29" s="4">
         <v>47900</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="7">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3799,12 +2359,12 @@
       <c r="E30" s="4">
         <v>17000</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="7">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3819,12 +2379,12 @@
       <c r="E31" s="4">
         <v>28000</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="7">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3839,12 +2399,12 @@
       <c r="E32" s="4">
         <v>11000</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="7">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3859,12 +2419,12 @@
       <c r="E33" s="4">
         <v>40000</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="7">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3879,12 +2439,12 @@
       <c r="E34" s="4">
         <v>17900</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="7">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3899,12 +2459,12 @@
       <c r="E35" s="4">
         <v>150000</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="7">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3919,12 +2479,12 @@
       <c r="E36" s="4">
         <v>38000</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="7">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3939,12 +2499,12 @@
       <c r="E37" s="4">
         <v>18000</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="7">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3959,12 +2519,12 @@
       <c r="E38" s="4">
         <v>48000</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="7">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3979,12 +2539,12 @@
       <c r="E39" s="4">
         <v>45000</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="7">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3999,12 +2559,12 @@
       <c r="E40" s="4">
         <v>39000</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="7">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4019,12 +2579,12 @@
       <c r="E41" s="4">
         <v>27000</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="7">
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4039,12 +2599,12 @@
       <c r="E42" s="4">
         <v>20200</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="7">
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4059,12 +2619,12 @@
       <c r="E43" s="4">
         <v>51000</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="7">
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4079,12 +2639,12 @@
       <c r="E44" s="4">
         <v>59000</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="7">
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4099,12 +2659,12 @@
       <c r="E45" s="4">
         <v>18000</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="7">
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4119,12 +2679,12 @@
       <c r="E46" s="4">
         <v>12000</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="7">
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -4139,12 +2699,12 @@
       <c r="E47" s="4">
         <v>49000</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="7">
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4159,12 +2719,12 @@
       <c r="E48" s="4">
         <v>20200</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="7">
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -4179,12 +2739,12 @@
       <c r="E49" s="4">
         <v>19000</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="7">
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4199,12 +2759,12 @@
       <c r="E50" s="4">
         <v>197000</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="7">
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4219,12 +2779,12 @@
       <c r="E51" s="4">
         <v>350000</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="7">
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4239,12 +2799,12 @@
       <c r="E52" s="4">
         <v>25000</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="7">
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4259,12 +2819,12 @@
       <c r="E53" s="4">
         <v>15500</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="7">
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4279,12 +2839,12 @@
       <c r="E54" s="4">
         <v>48000</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="7">
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4299,12 +2859,12 @@
       <c r="E55" s="4">
         <v>16200</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="7">
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4319,12 +2879,12 @@
       <c r="E56" s="4">
         <v>45000</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="7">
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4339,12 +2899,12 @@
       <c r="E57" s="4">
         <v>66500</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="7">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4359,12 +2919,12 @@
       <c r="E58" s="4">
         <v>18000</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="7">
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4379,12 +2939,12 @@
       <c r="E59" s="4">
         <v>17000</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="7">
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4399,12 +2959,12 @@
       <c r="E60" s="4">
         <v>24000</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="7">
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4419,12 +2979,12 @@
       <c r="E61" s="4">
         <v>17500</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="7">
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4439,12 +2999,12 @@
       <c r="E62" s="4">
         <v>24000</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="7">
         <v>271</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -4459,12 +3019,12 @@
       <c r="E63" s="4">
         <v>49000</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="7">
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4479,12 +3039,12 @@
       <c r="E64" s="4">
         <v>44000</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="7">
         <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4499,12 +3059,12 @@
       <c r="E65" s="4">
         <v>25000</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="7">
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4519,12 +3079,12 @@
       <c r="E66" s="4">
         <v>143400</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="7">
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4539,12 +3099,12 @@
       <c r="E67" s="4">
         <v>16500</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="7">
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4559,12 +3119,12 @@
       <c r="E68" s="4">
         <v>24000</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="7">
         <v>291</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4579,12 +3139,12 @@
       <c r="E69" s="4">
         <v>62000</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="7">
         <v>292</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4599,12 +3159,12 @@
       <c r="E70" s="4">
         <v>37000</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="7">
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4619,12 +3179,12 @@
       <c r="E71" s="4">
         <v>60000</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="7">
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4639,12 +3199,12 @@
       <c r="E72" s="4">
         <v>31000</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="7">
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4659,12 +3219,12 @@
       <c r="E73" s="4">
         <v>35000</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="7">
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4679,12 +3239,12 @@
       <c r="E74" s="4">
         <v>40000</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="7">
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4699,12 +3259,12 @@
       <c r="E75" s="4">
         <v>18800</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="7">
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -4719,12 +3279,12 @@
       <c r="E76" s="4">
         <v>59000</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="7">
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -4739,12 +3299,12 @@
       <c r="E77" s="4">
         <v>71000</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="7">
         <v>339</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -4759,12 +3319,12 @@
       <c r="E78" s="4">
         <v>30000</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="7">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -4779,12 +3339,12 @@
       <c r="E79" s="4">
         <v>16000</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="7">
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -4799,12 +3359,12 @@
       <c r="E80" s="4">
         <v>54000</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="7">
         <v>353</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -4819,12 +3379,12 @@
       <c r="E81" s="4">
         <v>22500</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="7">
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>178</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -4839,12 +3399,12 @@
       <c r="E82" s="4">
         <v>65000</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="7">
         <v>364</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>180</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -4859,12 +3419,12 @@
       <c r="E83" s="4">
         <v>89000</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F83" s="7">
         <v>367</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -4879,12 +3439,12 @@
       <c r="E84" s="4">
         <v>28000</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="7">
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -4899,12 +3459,12 @@
       <c r="E85" s="4">
         <v>32900</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="7">
         <v>380</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -4919,12 +3479,12 @@
       <c r="E86" s="4">
         <v>30000</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="7">
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
         <v>188</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -4939,12 +3499,12 @@
       <c r="E87" s="4">
         <v>36000</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="7">
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>190</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -4959,12 +3519,12 @@
       <c r="E88" s="4">
         <v>32000</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="7">
         <v>398</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -4979,12 +3539,12 @@
       <c r="E89" s="4">
         <v>11000</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F89" s="7">
         <v>418</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -4999,12 +3559,12 @@
       <c r="E90" s="4">
         <v>97000</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F90" s="7">
         <v>418</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>196</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -5019,12 +3579,12 @@
       <c r="E91" s="4">
         <v>68000</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F91" s="7">
         <v>421</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>198</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -5039,12 +3599,12 @@
       <c r="E92" s="4">
         <v>254000</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="7">
         <v>431</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>200</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -5059,12 +3619,12 @@
       <c r="E93" s="4">
         <v>25000</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F93" s="7">
         <v>451</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>202</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -5079,12 +3639,12 @@
       <c r="E94" s="4">
         <v>18000</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="7">
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -5099,12 +3659,12 @@
       <c r="E95" s="4">
         <v>16000</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="7">
         <v>452</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>206</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -5119,12 +3679,12 @@
       <c r="E96" s="4">
         <v>14800</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="7">
         <v>469</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -5139,12 +3699,12 @@
       <c r="E97" s="4">
         <v>59000</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="7">
         <v>473</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -5159,12 +3719,12 @@
       <c r="E98" s="4">
         <v>10000</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>212</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -5179,12 +3739,12 @@
       <c r="E99" s="4">
         <v>31000</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="7">
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -5199,12 +3759,12 @@
       <c r="E100" s="4">
         <v>23000</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="7">
         <v>487</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -5219,12 +3779,12 @@
       <c r="E101" s="4">
         <v>29000</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="7">
         <v>489</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -5239,12 +3799,12 @@
       <c r="E102" s="4">
         <v>41800</v>
       </c>
-      <c r="F102" s="16">
+      <c r="F102" s="7">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -5259,12 +3819,12 @@
       <c r="E103" s="4">
         <v>41000</v>
       </c>
-      <c r="F103" s="16">
+      <c r="F103" s="7">
         <v>499</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -5279,12 +3839,12 @@
       <c r="E104" s="4">
         <v>19900</v>
       </c>
-      <c r="F104" s="16">
+      <c r="F104" s="7">
         <v>517</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -5299,12 +3859,12 @@
       <c r="E105" s="4">
         <v>50000</v>
       </c>
-      <c r="F105" s="16">
+      <c r="F105" s="7">
         <v>527</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -5319,12 +3879,12 @@
       <c r="E106" s="4">
         <v>19000</v>
       </c>
-      <c r="F106" s="16">
+      <c r="F106" s="7">
         <v>530</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>228</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -5339,12 +3899,12 @@
       <c r="E107" s="4">
         <v>32000</v>
       </c>
-      <c r="F107" s="16">
+      <c r="F107" s="7">
         <v>542</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -5359,12 +3919,12 @@
       <c r="E108" s="4">
         <v>54000</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F108" s="7">
         <v>558</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -5379,12 +3939,12 @@
       <c r="E109" s="4">
         <v>21000</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="7">
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
         <v>234</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -5399,12 +3959,12 @@
       <c r="E110" s="4">
         <v>17000</v>
       </c>
-      <c r="F110" s="16">
+      <c r="F110" s="7">
         <v>595</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>236</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -5419,12 +3979,12 @@
       <c r="E111" s="4">
         <v>48000</v>
       </c>
-      <c r="F111" s="16">
+      <c r="F111" s="7">
         <v>608</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
         <v>238</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -5439,12 +3999,12 @@
       <c r="E112" s="4">
         <v>25000</v>
       </c>
-      <c r="F112" s="16">
+      <c r="F112" s="7">
         <v>616</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -5459,12 +4019,12 @@
       <c r="E113" s="4">
         <v>83000</v>
       </c>
-      <c r="F113" s="16">
+      <c r="F113" s="7">
         <v>622</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -5479,12 +4039,12 @@
       <c r="E114" s="4">
         <v>30200</v>
       </c>
-      <c r="F114" s="16">
+      <c r="F114" s="7">
         <v>625</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -5499,12 +4059,12 @@
       <c r="E115" s="4">
         <v>18000</v>
       </c>
-      <c r="F115" s="16">
+      <c r="F115" s="7">
         <v>632</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -5519,12 +4079,12 @@
       <c r="E116" s="4">
         <v>28000</v>
       </c>
-      <c r="F116" s="16">
+      <c r="F116" s="7">
         <v>645</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
         <v>249</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -5539,12 +4099,12 @@
       <c r="E117" s="4">
         <v>39000</v>
       </c>
-      <c r="F117" s="16">
+      <c r="F117" s="7">
         <v>665</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -5559,12 +4119,12 @@
       <c r="E118" s="4">
         <v>19300</v>
       </c>
-      <c r="F118" s="16">
+      <c r="F118" s="7">
         <v>665</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -5579,12 +4139,12 @@
       <c r="E119" s="4">
         <v>31000</v>
       </c>
-      <c r="F119" s="16">
+      <c r="F119" s="7">
         <v>678</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="15" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -5599,12 +4159,12 @@
       <c r="E120" s="4">
         <v>28000</v>
       </c>
-      <c r="F120" s="16">
+      <c r="F120" s="7">
         <v>701</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -5619,12 +4179,12 @@
       <c r="E121" s="4">
         <v>26000</v>
       </c>
-      <c r="F121" s="16">
+      <c r="F121" s="7">
         <v>705</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -5639,12 +4199,12 @@
       <c r="E122" s="4">
         <v>21000</v>
       </c>
-      <c r="F122" s="16">
+      <c r="F122" s="7">
         <v>718</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -5659,12 +4219,12 @@
       <c r="E123" s="4">
         <v>15600</v>
       </c>
-      <c r="F123" s="16">
+      <c r="F123" s="7">
         <v>735</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -5679,12 +4239,12 @@
       <c r="E124" s="4">
         <v>27500</v>
       </c>
-      <c r="F124" s="16">
+      <c r="F124" s="7">
         <v>770</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -5699,12 +4259,12 @@
       <c r="E125" s="4">
         <v>12900</v>
       </c>
-      <c r="F125" s="16">
+      <c r="F125" s="7">
         <v>808</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
         <v>267</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -5719,12 +4279,12 @@
       <c r="E126" s="4">
         <v>55000</v>
       </c>
-      <c r="F126" s="16">
+      <c r="F126" s="7">
         <v>810</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>269</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -5739,12 +4299,12 @@
       <c r="E127" s="4">
         <v>25900</v>
       </c>
-      <c r="F127" s="16">
+      <c r="F127" s="7">
         <v>824</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>271</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -5759,12 +4319,12 @@
       <c r="E128" s="4">
         <v>16000</v>
       </c>
-      <c r="F128" s="16">
+      <c r="F128" s="7">
         <v>827</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
         <v>273</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -5779,12 +4339,12 @@
       <c r="E129" s="4">
         <v>30000</v>
       </c>
-      <c r="F129" s="16">
+      <c r="F129" s="7">
         <v>830</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
         <v>275</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -5799,12 +4359,12 @@
       <c r="E130" s="4">
         <v>104000</v>
       </c>
-      <c r="F130" s="16">
+      <c r="F130" s="7">
         <v>847</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
         <v>277</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -5819,12 +4379,12 @@
       <c r="E131" s="4">
         <v>23000</v>
       </c>
-      <c r="F131" s="16">
+      <c r="F131" s="7">
         <v>861</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -5839,12 +4399,12 @@
       <c r="E132" s="4">
         <v>32000</v>
       </c>
-      <c r="F132" s="16">
+      <c r="F132" s="7">
         <v>909</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
         <v>281</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -5859,12 +4419,12 @@
       <c r="E133" s="4">
         <v>36200</v>
       </c>
-      <c r="F133" s="16">
+      <c r="F133" s="7">
         <v>930</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -5879,12 +4439,12 @@
       <c r="E134" s="4">
         <v>56900</v>
       </c>
-      <c r="F134" s="16">
+      <c r="F134" s="7">
         <v>971</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
         <v>285</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -5899,12 +4459,12 @@
       <c r="E135" s="4">
         <v>34800</v>
       </c>
-      <c r="F135" s="16">
+      <c r="F135" s="7">
         <v>998</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -5919,12 +4479,12 @@
       <c r="E136" s="4">
         <v>55000</v>
       </c>
-      <c r="F136" s="16">
+      <c r="F136" s="7">
         <v>1018</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="15" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
         <v>289</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -5939,12 +4499,12 @@
       <c r="E137" s="4">
         <v>25500</v>
       </c>
-      <c r="F137" s="16">
+      <c r="F137" s="7">
         <v>1071</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
         <v>291</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -5959,12 +4519,12 @@
       <c r="E138" s="4">
         <v>68000</v>
       </c>
-      <c r="F138" s="16">
+      <c r="F138" s="7">
         <v>1156</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="15" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
         <v>293</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -5979,12 +4539,12 @@
       <c r="E139" s="4">
         <v>22000</v>
       </c>
-      <c r="F139" s="16">
+      <c r="F139" s="7">
         <v>1328</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="6" t="s">
         <v>295</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -5999,12 +4559,12 @@
       <c r="E140" s="4">
         <v>54900</v>
       </c>
-      <c r="F140" s="16">
+      <c r="F140" s="7">
         <v>1660</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="15" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
         <v>297</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -6019,12 +4579,12 @@
       <c r="E141" s="4">
         <v>29000</v>
       </c>
-      <c r="F141" s="16">
+      <c r="F141" s="7">
         <v>2343</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
         <v>299</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -6039,12 +4599,12 @@
       <c r="E142" s="4">
         <v>26500</v>
       </c>
-      <c r="F142" s="16">
+      <c r="F142" s="7">
         <v>2633</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
         <v>301</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -6059,27 +4619,27 @@
       <c r="E143" s="4">
         <v>34800</v>
       </c>
-      <c r="F143" s="16">
+      <c r="F143" s="7">
         <v>3192</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="20" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B144" s="21" t="s">
+      <c r="B144" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C144" s="22" t="s">
+      <c r="C144" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="23" t="s">
+      <c r="D144" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E144" s="24">
+      <c r="E144" s="15">
         <v>16200</v>
       </c>
-      <c r="F144" s="25">
+      <c r="F144" s="16">
         <v>3315</v>
       </c>
     </row>
